--- a/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>SOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E8" s="3">
         <v>66000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>27800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>44800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>103000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>36300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>151600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>156600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>232100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>187000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>250000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E9" s="3">
         <v>49700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>88800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>29900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>147500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>154900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>227100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>168200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>208900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E10" s="3">
         <v>16300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>41100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,26 +954,29 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3">
         <v>5400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,25 +1025,28 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E14" s="3">
         <v>5500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1035,8 +1054,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1044,23 +1063,26 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>4700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E17" s="3">
         <v>58600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
         <v>172000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>174400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>254000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>198800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>243700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>248200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E18" s="3">
         <v>7400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5900</v>
       </c>
       <c r="J18" s="3">
         <v>5900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
+      <c r="K18" s="3">
+        <v>5900</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>-20400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-17800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-21900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1328,144 +1364,153 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>32500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="3">
         <v>2200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E23" s="3">
         <v>2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-29100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-22100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1473,31 +1518,34 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
         <v>2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>400</v>
       </c>
       <c r="R24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3200</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
         <v>-31500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-25500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E27" s="3">
         <v>2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3">
         <v>-31500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-25500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,13 +1753,16 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1710,11 +1770,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1722,8 +1782,8 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E33" s="3">
         <v>2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3">
         <v>-31500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-25500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E35" s="3">
         <v>2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3">
         <v>-31500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-25500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E41" s="3">
         <v>9400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24800</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>13400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
         <v>28600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>28800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,66 +2330,72 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E43" s="3">
         <v>46600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>50700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>47300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>55900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>58900</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>38500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>134000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>129700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>134100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>204000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>195900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
@@ -2308,14 +2403,14 @@
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -2323,126 +2418,135 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>92300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>153200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>144000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>185200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>165500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E45" s="3">
         <v>50800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>80900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>80500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>81200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>73800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>91600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>118100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>264300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>233600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>192100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>194500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>248100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>232700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>103100</v>
+      </c>
+      <c r="E46" s="3">
         <v>106800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>138900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>138200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>135300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>138000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>175300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>170100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3">
         <v>519200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>543200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>507500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>612500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>633100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>652100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>192300</v>
+      </c>
+      <c r="E48" s="3">
         <v>211400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>249000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>226100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>190800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>192500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>195900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>154700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>537600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>486300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>491300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>547700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>568100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>603200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2567,32 +2677,35 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3">
         <v>32200</v>
-      </c>
-      <c r="N49" s="3">
-        <v>31900</v>
       </c>
       <c r="O49" s="3">
         <v>31900</v>
       </c>
       <c r="P49" s="3">
+        <v>31900</v>
+      </c>
+      <c r="Q49" s="3">
         <v>35500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>35800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E52" s="3">
         <v>14500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>53400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>51700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>44900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18500</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>11000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>66000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>57800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>50800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>51700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>319900</v>
+      </c>
+      <c r="E54" s="3">
         <v>332700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>406300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>417700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>377700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>375400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>389600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>335700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
         <v>1154900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1126300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1088400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1246600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1288700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1338900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E57" s="3">
         <v>14000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>23700</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>25800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>203200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>221600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>223300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>281300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>280600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E58" s="3">
         <v>57100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>108900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>101900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>44500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>23700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>671400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>647600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>595400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>699000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>716500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>735600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E59" s="3">
         <v>42400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>56500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>77200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>61600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>73500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>112800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>150800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>101600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>85700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>82600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>89900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E60" s="3">
         <v>113500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>162800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>170900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>133700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>93300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>104700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>145200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3">
         <v>1025400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>970800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>904400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1062900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1087000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1129100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E61" s="3">
         <v>68400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>81200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>89100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>119300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>153200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>157800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>30300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E62" s="3">
         <v>21500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>33600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>35300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>67500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>84400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>82600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>89000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>92000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>89500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>225200</v>
+      </c>
+      <c r="E66" s="3">
         <v>238300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>313900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>329600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>287000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>280700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>294400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>245200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3">
         <v>1141000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1084400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1022300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1154900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1176400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1224200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-442300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-431400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-433800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-438900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-433500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-428400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-429900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-435500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>-524700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-493200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-470000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-444500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-424000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-429500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>94700</v>
+      </c>
+      <c r="E76" s="3">
         <v>94400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>92400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>88100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>90700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>94800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>95200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>90500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3">
         <v>13900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>66100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>91700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>112300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>114700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E81" s="3">
         <v>2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3">
         <v>-31500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-25500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>4500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>17800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>24100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>18100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>18400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>-4900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-33800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>44600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-80300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
         <v>-11300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-156400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-8800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-30100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>17900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>26000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>5200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>102400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>16000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>50700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-48900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>11600</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>-23900</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-15000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>SOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E8" s="3">
         <v>26500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>66000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>27800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>44800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>103000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>36300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>151600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>156600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>232100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>187000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>250000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E9" s="3">
         <v>19400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>49700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>88800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>29900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>147500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>154900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>227100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>168200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>208900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>7100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>41100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -957,26 +971,29 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3">
         <v>5400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,28 +1045,31 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1057,8 +1077,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1066,23 +1086,26 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>4700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E17" s="3">
         <v>39800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>58600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
         <v>172000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>174400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>254000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>198800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>243700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>248200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>5900</v>
       </c>
       <c r="K18" s="3">
         <v>5900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
+      <c r="L18" s="3">
+        <v>5900</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>-20400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-17800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1367,153 +1404,162 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>32500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>2300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-29100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-26900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-22400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1521,31 +1567,34 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
         <v>2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1900</v>
-      </c>
-      <c r="R24" s="3">
-        <v>400</v>
       </c>
       <c r="S24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3">
         <v>-31500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3">
         <v>-31500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-23200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,16 +1814,19 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1773,11 +1834,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1785,8 +1846,8 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3">
         <v>-31500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3">
         <v>-31500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E41" s="3">
         <v>24300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24800</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>13400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>28600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>28800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,72 +2423,78 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E43" s="3">
         <v>21300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>46600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>49300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>50700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>47300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>55900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>58900</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>38500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>134000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>129700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>134100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>204000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>195900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
@@ -2406,14 +2502,14 @@
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
@@ -2421,132 +2517,141 @@
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>92300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>153200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>144000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>185200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>165500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E45" s="3">
         <v>57400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>50800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>80900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>80500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>81200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>73800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>91600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>118100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>264300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>233600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>192100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>194500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>248100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>232700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>84200</v>
+      </c>
+      <c r="E46" s="3">
         <v>103100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>106800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>138900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>138200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>135300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>138000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>175300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>170100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>519200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>543200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>507500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>612500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>633100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>652100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2703,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>187500</v>
+      </c>
+      <c r="E48" s="3">
         <v>192300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>211400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>249000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>226100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>190800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>192500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>195900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>154700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>537600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>486300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>491300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>547700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>568100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>603200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2680,32 +2791,35 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>32200</v>
-      </c>
-      <c r="O49" s="3">
-        <v>31900</v>
       </c>
       <c r="P49" s="3">
         <v>31900</v>
       </c>
       <c r="Q49" s="3">
+        <v>31900</v>
+      </c>
+      <c r="R49" s="3">
         <v>35500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>35800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E52" s="3">
         <v>24600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>53400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>51700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>44900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18500</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>11000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>66000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>57800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>50800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>51700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>296900</v>
+      </c>
+      <c r="E54" s="3">
         <v>319900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>332700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>406300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>417700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>377700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>375400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>389600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>335700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>1154900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1126300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1088400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1246600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1288700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1338900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E57" s="3">
         <v>20400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>24600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>23700</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>25800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>203200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>221600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>223300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>281300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>280600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E58" s="3">
         <v>47800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>57100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>108900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>101900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>44500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>23700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>671400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>647600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>595400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>699000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>716500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>735600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E59" s="3">
         <v>41100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>56500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>77200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>61600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>73500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>112800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>150800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>101600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>85700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>82600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>89900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E60" s="3">
         <v>109400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>113500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>162800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>170900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>133700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>93300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>104700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>145200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>1025400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>970800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>904400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1062900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1087000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1129100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E61" s="3">
         <v>50100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>68400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>81200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>89100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>119300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>153200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>157800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>30300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E62" s="3">
         <v>22900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>33600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>67500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>84400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>82600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>89000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>92000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>89500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>206600</v>
+      </c>
+      <c r="E66" s="3">
         <v>225200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>238300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>313900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>329600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>287000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>280700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>294400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>245200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>1141000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1084400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1022300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1154900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1176400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1224200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-446700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-442300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-431400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-433800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-438900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-433500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-428400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-429900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-435500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-524700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-493200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-470000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-444500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-424000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-429500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E76" s="3">
         <v>94700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>94400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>92400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>88100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>90700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>94800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>95200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>90500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>13900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>41900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>66100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>91700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>112300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>114700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3">
         <v>-31500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4250,35 +4449,38 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>4500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>17800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>24100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>18100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L89" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>18400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>-4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-33800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>44600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4642,35 +4863,38 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-80300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
         <v>-11300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-156400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-8800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-30100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>17900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>26000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>102400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>16000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>50700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-48900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-19800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>11600</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>-23900</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-15000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>SOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E8" s="3">
         <v>21200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>66000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>44800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>103000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>36300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>151600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>156600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>232100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>187000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>250000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E9" s="3">
         <v>19800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>49700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>88800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>29900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>147500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>154900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>227100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>168200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>208900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>16300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>41100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -974,26 +988,29 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3">
         <v>5400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1065,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1080,8 +1100,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1089,23 +1109,26 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>4700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>22300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>39800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>58600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="3">
         <v>172000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>174400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>254000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>198800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>243700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>248200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>5900</v>
       </c>
       <c r="L18" s="3">
         <v>5900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
+      <c r="M18" s="3">
+        <v>5900</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="3">
         <v>-20400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-21900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1346,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1407,162 +1444,171 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>32500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-29100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-22100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-22400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1570,31 +1616,34 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3">
         <v>2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1900</v>
-      </c>
-      <c r="S24" s="3">
-        <v>400</v>
       </c>
       <c r="T24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3200</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="3">
         <v>-31500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-25500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="3">
         <v>-31500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-25500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,19 +1875,22 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1837,11 +1898,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1849,8 +1910,8 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="3">
         <v>-31500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-25500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="3">
         <v>-31500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-25500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E41" s="3">
         <v>15500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24800</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>13400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3">
         <v>28600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>26600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>37300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>28800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2516,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E43" s="3">
         <v>21000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>21300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>46600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>49300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>50700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>47300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>55900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>58900</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>38500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3">
         <v>134000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>129700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>134100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>204000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>195900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2493,11 +2589,11 @@
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
@@ -2505,14 +2601,14 @@
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
@@ -2520,138 +2616,147 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>92300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>153200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>144000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>185200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>165500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E45" s="3">
         <v>47700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>57400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>50800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>80900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>80500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>81200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>73800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>91600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>118100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>264300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>233600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>192100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>194500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>248100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>232700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E46" s="3">
         <v>84200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>103100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>106800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>138900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>138200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>135300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>138000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>175300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>170100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3">
         <v>519200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>543200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>507500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>612500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>633100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>652100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,64 +2811,70 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>183200</v>
+      </c>
+      <c r="E48" s="3">
         <v>187500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>192300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>211400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>249000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>226100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>190800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>192500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>195900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>154700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3">
         <v>537600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>486300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>491300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>547700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>568100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>603200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2794,32 +2905,35 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3">
         <v>32200</v>
-      </c>
-      <c r="P49" s="3">
-        <v>31900</v>
       </c>
       <c r="Q49" s="3">
         <v>31900</v>
       </c>
       <c r="R49" s="3">
+        <v>31900</v>
+      </c>
+      <c r="S49" s="3">
         <v>35500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>35800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E52" s="3">
         <v>25300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>53400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>51700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>44900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18500</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>11000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3">
         <v>66000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>65000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>57800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>50800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>51700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E54" s="3">
         <v>296900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>319900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>332700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>406300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>417700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>377700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>375400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>389600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>335700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3">
         <v>1154900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1126300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1088400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1246600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1288700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1338900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3272,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E57" s="3">
         <v>6900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>24600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23700</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>25800</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3">
         <v>203200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>221600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>223300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>281300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>280600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E58" s="3">
         <v>43900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>47800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>57100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>108900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>101900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>44500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
         <v>671400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>647600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>595400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>699000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>716500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>735600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E59" s="3">
         <v>38600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>41100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>56500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>77200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>61600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>73500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>112800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3">
         <v>150800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>101600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>85700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>82600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>89900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E60" s="3">
         <v>89400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>109400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>113500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>162800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>170900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>133700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>93300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>104700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>145200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3">
         <v>1025400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>970800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>904400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1062900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1087000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1129100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E61" s="3">
         <v>52500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>50100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>68400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>81200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>89100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>119300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>153200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>157800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>30300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E62" s="3">
         <v>22600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>33600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>67500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>84400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>82600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>89000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>92000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>89500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>184400</v>
+      </c>
+      <c r="E66" s="3">
         <v>206600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>225200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>238300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>313900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>329600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>287000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>280700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>294400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>245200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3">
         <v>1141000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1084400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1022300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1154900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1176400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1224200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-443700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-446700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-442300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-431400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-433800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-438900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-433500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-428400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-429900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-435500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
         <v>-524700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-493200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-470000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-444500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-424000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-429500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E76" s="3">
         <v>90300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>94700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>94400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>92400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>88100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>90700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>94800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>95200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>90500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3">
         <v>13900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>66100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>91700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>112300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>114700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P81" s="3">
         <v>-31500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-25500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4452,35 +4651,38 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>4500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3">
         <v>17800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>24100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>18100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,17 +4973,20 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9900</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4785,38 +5002,41 @@
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>18400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3">
         <v>-4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-33800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>44600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4866,35 +5087,38 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
         <v>-80300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3">
         <v>-11300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,17 +5232,20 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3">
         <v>1200</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5031,38 +5261,41 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-156400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3">
         <v>-8800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-30100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>17900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>26000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,17 +5550,20 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5333,47 +5579,50 @@
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>102400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3">
         <v>16000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>50700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-48900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-19800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>1900</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
@@ -5389,47 +5638,50 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>11600</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-6800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8100</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5445,34 +5697,37 @@
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>-23900</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3">
         <v>2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-15000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>SOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E8" s="3">
         <v>26200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>66000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>44800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>103000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>36300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>151600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>156600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>232100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>187000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>250000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E9" s="3">
         <v>18800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>49700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>88800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>29900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>147500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>154900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>227100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>168200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>208900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E10" s="3">
         <v>7400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>16300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>41100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,26 +1005,29 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3">
         <v>5400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,34 +1085,37 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1103,8 +1123,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1112,23 +1132,26 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>4700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>6900</v>
       </c>
       <c r="E17" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F17" s="3">
         <v>22300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>39800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>58600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3">
         <v>172000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>174400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>254000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>198800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>243700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>248200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>2800</v>
       </c>
       <c r="E18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>5900</v>
       </c>
       <c r="M18" s="3">
         <v>5900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
+      <c r="N18" s="3">
+        <v>5900</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-17800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-21900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,67 +1380,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>1200</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1447,171 +1484,180 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>32500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-29100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-26900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-22100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-22400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1619,31 +1665,34 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
         <v>2400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1900</v>
-      </c>
-      <c r="T24" s="3">
-        <v>400</v>
       </c>
       <c r="U24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3200</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-23200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-25500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-20500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-23200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-25500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-20500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1889,11 +1950,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1901,11 +1962,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1913,8 +1974,8 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-1200</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-23200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-25500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-20500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-23200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-25500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-20500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E41" s="3">
         <v>11300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24800</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>13400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>28600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>26600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>37300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>28800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>23700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,99 +2609,105 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E43" s="3">
         <v>29500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>21000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>21300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>46600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>49300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>50700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>47300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>55900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>58900</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>38500</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>134000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>129700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>134100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>204000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>195900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
@@ -2619,144 +2715,153 @@
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>92300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>153200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>144000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>185200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>165500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E45" s="3">
         <v>27600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>47700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>57400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>50800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>80900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>80500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>81200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>73800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>91600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>118100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>264300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>233600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>192100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>194500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>248100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>232700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E46" s="3">
         <v>68400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>84200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>103100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>106800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>138900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>138200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>135300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>138000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>175300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>170100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>519200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>543200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>507500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>612500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>633100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>652100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,67 +2919,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>186900</v>
+      </c>
+      <c r="E48" s="3">
         <v>183200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>187500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>192300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>211400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>249000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>226100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>190800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>192500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>195900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>154700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>537600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>486300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>491300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>547700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>568100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>603200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2908,32 +3019,35 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>32200</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>31900</v>
       </c>
       <c r="R49" s="3">
         <v>31900</v>
       </c>
       <c r="S49" s="3">
+        <v>31900</v>
+      </c>
+      <c r="T49" s="3">
         <v>35500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>35800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E52" s="3">
         <v>26500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>53400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>51700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>44900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18500</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>11000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>66000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>65000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>57800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>50800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>51700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>289100</v>
+      </c>
+      <c r="E54" s="3">
         <v>278000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>296900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>319900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>332700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>406300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>417700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>377700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>375400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>389600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>335700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1154900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1126300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1088400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1246600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1288700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1338900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E57" s="3">
         <v>6700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23700</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>25800</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>203200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>221600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>223300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>281300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>280600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E58" s="3">
         <v>42100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>43900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>47800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>57100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>108900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>101900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>44500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>23700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>671400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>647600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>595400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>699000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>716500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>735600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E59" s="3">
         <v>27000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>38600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>41100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>56500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>77200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>61600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>73500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>112800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>150800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>101600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>85700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>82600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>89900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E60" s="3">
         <v>75900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>89400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>109400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>113500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>162800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>170900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>133700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>93300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>104700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>145200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1025400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>970800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>904400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1062900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1087000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1129100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E61" s="3">
         <v>44800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>52500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>50100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>68400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>81200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>89100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>119300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>153200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>157800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>30300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28800</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E62" s="3">
         <v>21200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>33600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>35300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>67500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>84400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>82600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>89000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>92000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>89500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>185700</v>
+      </c>
+      <c r="E66" s="3">
         <v>184400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>206600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>225200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>238300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>313900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>329600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>287000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>280700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>294400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>245200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1141000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1084400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1022300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1154900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1176400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1224200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-441500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-443700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-446700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-442300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-431400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-433800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-438900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-433500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-428400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-429900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-435500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-524700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-493200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-470000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-444500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-424000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-429500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E76" s="3">
         <v>93600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>90300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>94700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>94400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>92400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>88100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>90700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>94800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>95200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>90500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>13900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>66100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>91700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>112300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>114700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-23200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-25500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-20500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4654,35 +4853,38 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>4500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>17800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>24100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>18100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,20 +5190,23 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>-1900</v>
       </c>
       <c r="E89" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-9900</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5005,38 +5222,41 @@
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>18400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-33800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>44600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5090,35 +5311,38 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
         <v>-80300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,20 +5462,23 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-1000</v>
       </c>
       <c r="E94" s="3">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
         <v>1200</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5264,38 +5494,41 @@
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-156400</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-30100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>17900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>26000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,20 +5796,23 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>8300</v>
       </c>
       <c r="E100" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1400</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5582,50 +5828,53 @@
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>102400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
         <v>16000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>50700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-48900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1900</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
@@ -5641,50 +5890,53 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>11600</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8100</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5700,34 +5952,37 @@
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>-23900</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
         <v>2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-15000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>SOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E8" s="3">
         <v>9700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>66000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>44800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>103000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>36300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>151600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>156600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>232100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>187000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>250000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E9" s="3">
         <v>3800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>19400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>49700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>88800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>29900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>147500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>154900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>227100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>168200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>208900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>18800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>41100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,26 +1021,29 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3">
         <v>5400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,37 +1104,40 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1126,8 +1145,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1135,23 +1154,26 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>4700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E17" s="3">
         <v>6900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>39800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>58600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="3">
         <v>172000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>174400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>254000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>198800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>243700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>248200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="E18" s="3">
         <v>2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5700</v>
-      </c>
-      <c r="M18" s="3">
-        <v>5900</v>
       </c>
       <c r="N18" s="3">
         <v>5900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>8</v>
+      <c r="O18" s="3">
+        <v>5900</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="3">
         <v>-20400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-17800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-21900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-11800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,70 +1413,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1487,150 +1523,159 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>32500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-29100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-26900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-22100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-22400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1638,29 +1683,29 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1668,31 +1713,34 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="3">
         <v>2400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1900</v>
-      </c>
-      <c r="U24" s="3">
-        <v>400</v>
       </c>
       <c r="V24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="3">
         <v>-31500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-23200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-25500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-20500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" s="3">
         <v>-31500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-23200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-25500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-20500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1953,11 +2013,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1965,11 +2025,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1977,8 +2037,8 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" s="3">
         <v>-31500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-23200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-25500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-20500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35" s="3">
         <v>-31500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-23200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-25500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-20500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E41" s="3">
         <v>15600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24800</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>13400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
         <v>28600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>26600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>37300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>28800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E43" s="3">
         <v>24700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>29500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>21000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>21300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>46600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>49300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>50700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>47300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>55900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>58900</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>38500</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
         <v>134000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>129700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>134100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>204000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>195900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2700,17 +2795,17 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
@@ -2718,150 +2813,159 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>92300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>153200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>144000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>185200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>165500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>72300</v>
+      </c>
+      <c r="E45" s="3">
         <v>32300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>47700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>57400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>50800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>80900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>80500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>81200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>73800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>91600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>118100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
         <v>264300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>233600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>192100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>194500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>248100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>232700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>136700</v>
+      </c>
+      <c r="E46" s="3">
         <v>72500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>68400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>84200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>103100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>106800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>138900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>138200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>135300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>138000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>175300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>170100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3">
         <v>519200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>543200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>507500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>612500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>633100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>652100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,93 +3026,99 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>168700</v>
+      </c>
+      <c r="E48" s="3">
         <v>186900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>183200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>187500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>192300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>211400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>249000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>226100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>190800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>192500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>195900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>154700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3">
         <v>537600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>486300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>491300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>547700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>568100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>603200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3022,32 +3132,35 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>32200</v>
-      </c>
-      <c r="R49" s="3">
-        <v>31900</v>
       </c>
       <c r="S49" s="3">
         <v>31900</v>
       </c>
       <c r="T49" s="3">
+        <v>31900</v>
+      </c>
+      <c r="U49" s="3">
         <v>35500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>35800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E52" s="3">
         <v>29700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>26500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>53400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>51700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>44900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18500</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>11000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3">
         <v>66000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>65000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>57800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>50800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>51700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>336900</v>
+      </c>
+      <c r="E54" s="3">
         <v>289100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>278000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>296900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>319900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>332700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>406300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>417700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>377700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>375400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>389600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>335700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3">
         <v>1154900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1126300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1088400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1246600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1288700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1338900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E57" s="3">
         <v>9800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23700</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>25800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
         <v>203200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>221600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>223300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>281300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>280600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E58" s="3">
         <v>43500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>42100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>43900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>47800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>57100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>108900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>101900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>44500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>23700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>671400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>647600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>595400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>699000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>716500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>735600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E59" s="3">
         <v>19900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>38600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>41100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>42400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>56500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>77200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>61600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>73500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>112800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>150800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>101600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>85700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>82600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>89900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E60" s="3">
         <v>73200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>75900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>89400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>109400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>113500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>162800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>170900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>133700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>93300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>104700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>145200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3">
         <v>1025400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>970800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>904400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1062900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1087000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1129100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E61" s="3">
         <v>48100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>44800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>52500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>50100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>68400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>81200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>89100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>119300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>153200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>157800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>32500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>30300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>31100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E62" s="3">
         <v>20400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>33600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>35300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>67500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
         <v>84400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>82600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>89000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>92000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>89500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E66" s="3">
         <v>185700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>184400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>206600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>225200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>238300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>313900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>329600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>287000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>280700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>294400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>245200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3">
         <v>1141000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1084400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1022300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1154900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1176400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1224200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-439600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-441500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-443700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-446700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-442300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-431400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-433800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-438900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-433500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-428400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-429900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-435500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>-524700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-493200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-470000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-444500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-424000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-429500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E76" s="3">
         <v>103300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>93600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>90300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>94700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>94400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>92400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>88100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>90700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>94800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>95200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>90500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3">
         <v>13900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>41900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>66100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>91700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>112300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>114700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R81" s="3">
         <v>-31500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-23200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-25500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-20500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4856,35 +5054,38 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3">
         <v>4500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R83" s="3">
         <v>17800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>24100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>19900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>18100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,23 +5406,26 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9900</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5225,38 +5441,41 @@
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3">
         <v>18400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R89" s="3">
         <v>-4900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-33800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>44600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-9100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5314,35 +5534,38 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3">
         <v>-80300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3">
         <v>-11300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,23 +5691,26 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5497,38 +5726,41 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3">
         <v>-156400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3">
         <v>-8800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-30100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>17900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>26000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>5200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,23 +6041,26 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E100" s="3">
         <v>8300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1400</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5831,53 +6076,56 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3">
         <v>102400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R100" s="3">
         <v>16000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>50700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-48900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-19800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1900</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
@@ -5893,53 +6141,56 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3">
         <v>11600</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E102" s="3">
         <v>4300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5955,34 +6206,37 @@
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3">
         <v>-23900</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3">
         <v>2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-15000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>SOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E8" s="3">
         <v>16400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>66000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>44800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>103000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>36300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>151600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>156600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>232100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>187000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>250000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E9" s="3">
         <v>14400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>19800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>19400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>49700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>36400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>88800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>29900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>147500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>154900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>227100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>168200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>208900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>14200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>18800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>41100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,26 +1038,29 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3">
         <v>5400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,40 +1124,43 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1148,8 +1168,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1157,23 +1177,26 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>4700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E17" s="3">
         <v>15900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>58600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="3">
         <v>172000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>174400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>254000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>198800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>243700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>248200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>5900</v>
       </c>
       <c r="O18" s="3">
         <v>5900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
+      <c r="P18" s="3">
+        <v>5900</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="3">
         <v>-20400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-17800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-21900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-11800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,78 +1447,82 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>8100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>4400</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -1526,189 +1563,198 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>32500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-29100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-26900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-22100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-22400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1716,31 +1762,34 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3">
         <v>2400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1900</v>
-      </c>
-      <c r="V24" s="3">
-        <v>400</v>
       </c>
       <c r="W24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3200</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" s="3">
         <v>-31500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-23200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-25500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-20500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="3">
         <v>-31500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-23200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-25500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-20500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,40 +2057,43 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2040,8 +2101,8 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-8100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S33" s="3">
         <v>-31500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-23200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-25500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-20500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="3">
         <v>-31500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-23200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-25500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-20500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E41" s="3">
         <v>40600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24800</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>13400</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>28600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>26600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>37300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>28800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>23700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E43" s="3">
         <v>23800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>21000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>21300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>46600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>49300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>50700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>47300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>55900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>58900</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>38500</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>134000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>129700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>134100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>204000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>195900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2798,17 +2894,17 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
@@ -2816,156 +2912,165 @@
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>92300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>153200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>144000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>185200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>165500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E45" s="3">
         <v>72300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>47700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>57400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>50800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>80900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>80500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>81200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>73800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>91600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>118100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>264300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>233600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>192100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>194500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>248100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>232700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>370200</v>
+      </c>
+      <c r="E46" s="3">
         <v>136700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>72500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>68400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>84200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>103100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>106800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>138900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>138200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>135300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>138000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>175300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>170100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
         <v>519200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>543200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>507500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>612500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>633100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>652100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,81 +3134,87 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>166200</v>
+      </c>
+      <c r="E48" s="3">
         <v>168700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>186900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>183200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>187500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>192300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>211400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>249000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>226100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>190800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>192500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>195900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>154700</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>537600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>486300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>491300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>547700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>568100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>603200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>1000</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
+      <c r="E49" s="3">
+        <v>1000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
@@ -3120,8 +3231,8 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3135,32 +3246,35 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>32200</v>
-      </c>
-      <c r="S49" s="3">
-        <v>31900</v>
       </c>
       <c r="T49" s="3">
         <v>31900</v>
       </c>
       <c r="U49" s="3">
+        <v>31900</v>
+      </c>
+      <c r="V49" s="3">
         <v>35500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>35800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E52" s="3">
         <v>30400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>29700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>26500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>53400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>51700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>44900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18500</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>11000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>66000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>65000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>57800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>50800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>51700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>567100</v>
+      </c>
+      <c r="E54" s="3">
         <v>336900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>289100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>278000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>296900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>319900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>332700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>406300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>417700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>377700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>375400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>389600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>335700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>1154900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1126300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1088400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1246600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1288700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1338900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E57" s="3">
         <v>6300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>24600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23700</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>25800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>203200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>221600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>223300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>281300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>280600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E58" s="3">
         <v>49100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>43500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>42100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>43900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>47800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>57100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>108900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>101900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>44500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>23700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6600</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>671400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>647600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>595400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>699000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>716500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>735600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E59" s="3">
         <v>32900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>38600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>41100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>42400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>43100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>56500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>77200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>61600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>73500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>112800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>150800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>101600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>85700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>82600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>89900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E60" s="3">
         <v>88300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>73200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>75900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>89400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>109400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>113500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>162800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>170900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>133700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>93300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>104700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>145200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3">
         <v>1025400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>970800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>904400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1062900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1087000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1129100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E61" s="3">
         <v>44000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>48100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>44800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>52500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>50100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>68400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>81200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>89100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>119300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>153200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>157800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>30300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>31100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28800</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E62" s="3">
         <v>21400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>67500</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>84400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>82600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>89000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>92000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>89500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>153800</v>
+      </c>
+      <c r="E66" s="3">
         <v>197800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>185700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>184400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>206600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>225200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>238300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>313900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>329600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>287000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>280700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>294400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>245200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>1141000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1084400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1022300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1154900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1176400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1224200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-438800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-439600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-441500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-443700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-446700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-442300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-431400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-433800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-438900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-433500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-428400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-429900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-435500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>-524700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-493200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-470000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-444500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-424000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-429500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>413300</v>
+      </c>
+      <c r="E76" s="3">
         <v>139100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>103300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>93600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>90300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>94700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>94400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>92400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>88100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>90700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>94800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>95200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>90500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>13900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>41900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>66100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>91700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>112300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>114700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S81" s="3">
         <v>-31500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-23200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-25500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-20500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5057,35 +5256,38 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>4500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3">
         <v>17800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>24100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>19900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>18100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,26 +5623,29 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9900</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5444,38 +5661,41 @@
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
         <v>18400</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S89" s="3">
         <v>-4900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-33800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>44600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-9100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5537,35 +5758,38 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-80300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
         <v>-11300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,26 +5921,29 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1200</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5729,38 +5959,41 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-156400</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
         <v>-8800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-30100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>17900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>26000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>5200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,26 +6287,29 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>244800</v>
+      </c>
+      <c r="E100" s="3">
         <v>32600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1400</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
@@ -6079,56 +6325,59 @@
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
         <v>102400</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3">
         <v>16000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>50700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-48900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-19800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1900</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
@@ -6144,56 +6393,59 @@
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3">
         <v>11600</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-6800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>260300</v>
+      </c>
+      <c r="E102" s="3">
         <v>24300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
@@ -6209,34 +6461,37 @@
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3">
         <v>2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>8500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-15000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>SOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E8" s="3">
         <v>22800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>66000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>27800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>44800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>103000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>36300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>151600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>156600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>232100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>187000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>250000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E9" s="3">
         <v>16000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>19800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>49700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>36400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>88800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>29900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>147500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>154900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>227100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>168200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>208900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E10" s="3">
         <v>6800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>18800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>41100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,26 +1055,29 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3">
         <v>5400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,34 +1156,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1171,8 +1191,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1180,23 +1200,26 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>4700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E17" s="3">
         <v>18700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>58600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>38900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="3">
         <v>172000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>174400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>254000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>198800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>243700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>248200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E18" s="3">
         <v>4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>5900</v>
       </c>
       <c r="P18" s="3">
         <v>5900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>8</v>
+      <c r="Q18" s="3">
+        <v>5900</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="3">
         <v>-20400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-17800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-21900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-11800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,85 +1481,89 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>8100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E21" s="3">
         <v>4400</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1566,198 +1603,207 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>-2600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>32500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-29100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-26900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-22100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-22400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1765,31 +1811,34 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="3">
         <v>2400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1900</v>
-      </c>
-      <c r="W24" s="3">
-        <v>400</v>
       </c>
       <c r="X24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3200</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="3">
         <v>-31500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-23200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-25500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-20500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3200</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" s="3">
         <v>-31500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-23200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-25500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-20500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2086,17 +2147,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2104,8 +2165,8 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-8100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3200</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T33" s="3">
         <v>-31500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-23200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-25500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-20500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3200</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T35" s="3">
         <v>-31500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-23200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-25500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-20500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E41" s="3">
         <v>301000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24800</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>13400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="3">
         <v>28600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>26600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>37300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>28800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>23700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,76 +2887,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E43" s="3">
         <v>36000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>29500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>21000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>21300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>46600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>49300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>50700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>47300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>55900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>58900</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>38500</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="3">
         <v>134000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>129700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>134100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>204000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>195900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2897,17 +2993,17 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>8</v>
@@ -2915,162 +3011,171 @@
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3">
         <v>92300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>153200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>144000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>185200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>165500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E45" s="3">
         <v>33200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>72300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>32300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>47700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>57400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>50800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>80900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>80500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>81200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>73800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>91600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>118100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3">
         <v>264300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>233600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>192100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>194500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>248100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>232700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>357100</v>
+      </c>
+      <c r="E46" s="3">
         <v>370200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>136700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>72500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>68400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>84200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>103100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>106800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>138900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>138200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>135300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>138000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>175300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>170100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="3">
         <v>519200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>543200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>507500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>612500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>633100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>652100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,76 +3242,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>167300</v>
+      </c>
+      <c r="E48" s="3">
         <v>166200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>168700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>186900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>183200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>187500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>192300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>211400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>249000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>226100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>190800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>192500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>195900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>154700</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3">
         <v>537600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>486300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>491300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>547700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>568100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>603200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3216,8 +3327,8 @@
       <c r="E49" s="3">
         <v>1000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
+      <c r="F49" s="3">
+        <v>1000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
@@ -3234,8 +3345,8 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3249,32 +3360,35 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3">
         <v>32200</v>
-      </c>
-      <c r="T49" s="3">
-        <v>31900</v>
       </c>
       <c r="U49" s="3">
         <v>31900</v>
       </c>
       <c r="V49" s="3">
+        <v>31900</v>
+      </c>
+      <c r="W49" s="3">
         <v>35500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>35800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E52" s="3">
         <v>29700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>29700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>26500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>53400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>51700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>44900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18500</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>11000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3">
         <v>66000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>65000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>57800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>50800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>51700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>559200</v>
+      </c>
+      <c r="E54" s="3">
         <v>567100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>336900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>289100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>278000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>296900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>319900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>332700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>406300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>417700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>377700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>375400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>389600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>335700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="3">
         <v>1154900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1126300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1088400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1246600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1288700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1338900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3795,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>24600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>23700</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>25800</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3">
         <v>203200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>221600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>223300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>281300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>280600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E58" s="3">
         <v>23000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>49100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>43500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>42100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>43900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>47800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>57100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>108900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>101900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>44500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6600</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3">
         <v>671400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>647600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>595400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>699000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>716500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>735600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E59" s="3">
         <v>23500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>38600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>41100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>42400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>43100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>56500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>77200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>61600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>73500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>112800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3">
         <v>150800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>101600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>85700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>82600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>89900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E60" s="3">
         <v>51100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>88300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>73200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>75900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>89400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>109400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>113500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>162800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>170900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>133700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>93300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>104700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>145200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3">
         <v>1025400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>970800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>904400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1062900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1087000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1129100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E61" s="3">
         <v>38800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>44000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>48100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>44800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>52500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>50100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>68400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>81200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>89100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>119300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>153200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>157800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>30300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>31100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28800</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E62" s="3">
         <v>20100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>67500</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
         <v>84400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>82600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>89000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>92000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>89500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>137200</v>
+      </c>
+      <c r="E66" s="3">
         <v>153800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>197800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>185700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>184400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>206600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>225200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>238300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>313900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>329600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>287000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>280700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>294400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>245200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3">
         <v>1141000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1084400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1022300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1154900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1176400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1224200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-431800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-438800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-439600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-441500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-443700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-446700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-442300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-431400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-433800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-438900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-433500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-428400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-429900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-435500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3">
         <v>-524700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-493200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-470000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-444500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-424000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-429500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>422000</v>
+      </c>
+      <c r="E76" s="3">
         <v>413300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>139100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>103300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>93600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>90300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>94700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>94400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>92400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>88100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>90700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>94800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>95200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>90500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="3">
         <v>13900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>66100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>91700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>112300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>114700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3200</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T81" s="3">
         <v>-31500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-23200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-25500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-20500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5259,35 +5458,38 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R83" s="3">
         <v>4500</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T83" s="3">
         <v>17800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>20900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>24100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>19900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>18100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,29 +5840,32 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9900</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5664,38 +5881,41 @@
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R89" s="3">
         <v>18400</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T89" s="3">
         <v>-4900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-33800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>44600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-9100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5761,35 +5982,38 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3">
         <v>-80300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3">
         <v>-11300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,29 +6151,32 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>26100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5962,38 +6192,41 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3">
         <v>-156400</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3">
         <v>-8800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-30100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>17900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>26000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>5200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,29 +6533,32 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E100" s="3">
         <v>244800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>32600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1400</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
@@ -6328,59 +6574,62 @@
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R100" s="3">
         <v>102400</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T100" s="3">
         <v>16000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>50700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-48900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-19800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1900</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
@@ -6396,59 +6645,62 @@
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R101" s="3">
         <v>11600</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-6800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E102" s="3">
         <v>260300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
@@ -6464,34 +6716,37 @@
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3">
         <v>-23900</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="3">
         <v>2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>8500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-15000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>SOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E8" s="3">
         <v>18500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>21200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>66000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>27800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>44800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>103000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>36300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>151600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>156600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>232100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>187000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>250000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E9" s="3">
         <v>7200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>36400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>88800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>29900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>147500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>154900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>227100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>168200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>208900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E10" s="3">
         <v>11300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>18800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>41100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,26 +1072,29 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3">
         <v>5400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>5400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>6300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>7400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,46 +1164,49 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1194,8 +1214,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1203,23 +1223,26 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>4700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E17" s="3">
         <v>11200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>39800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>58600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>38900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="3">
         <v>172000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>174400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>254000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>198800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>243700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>248200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E18" s="3">
         <v>7300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5700</v>
-      </c>
-      <c r="P18" s="3">
-        <v>5900</v>
       </c>
       <c r="Q18" s="3">
         <v>5900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>8</v>
+      <c r="R18" s="3">
+        <v>5900</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="3">
         <v>-20400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-17800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-21900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-11800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,91 +1515,95 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>8100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>8400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4400</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1606,26 +1643,29 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>-2600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>32500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1633,180 +1673,186 @@
         <v>1000</v>
       </c>
       <c r="E22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>7500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-29100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-26900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-22100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-22400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1814,31 +1860,34 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" s="3">
         <v>2400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1900</v>
-      </c>
-      <c r="X24" s="3">
-        <v>400</v>
       </c>
       <c r="Y24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>7600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3200</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" s="3">
         <v>-31500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-23200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-25500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-20500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
         <v>7000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3200</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="3">
         <v>-31500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-23200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-25500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-20500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2150,17 +2211,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2168,8 +2229,8 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-8100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
         <v>7000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3200</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U33" s="3">
         <v>-31500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-23200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-25500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-20500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
         <v>7000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3200</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" s="3">
         <v>-31500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-23200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-25500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-20500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>275400</v>
+      </c>
+      <c r="E41" s="3">
         <v>286000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>301000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24800</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>13400</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3">
         <v>28600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>26600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>37300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>28800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>23700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,79 +2980,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E43" s="3">
         <v>39600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>36000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>29500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>21000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>21300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>46600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>49300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>50700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>47300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>55900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>58900</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>38500</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
         <v>134000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>129700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>134100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>204000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>195900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2996,17 +3092,17 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
@@ -3014,168 +3110,177 @@
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
         <v>92300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>153200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>144000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>185200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>165500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E45" s="3">
         <v>31500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>33200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>72300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>32300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>47700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>57400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>50800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>80900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>80500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>81200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>73800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>91600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>118100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
         <v>264300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>233600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>192100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>194500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>248100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>232700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>351200</v>
+      </c>
+      <c r="E46" s="3">
         <v>357100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>370200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>136700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>72500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>68400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>84200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>103100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>106800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>138900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>138200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>135300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>138000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>175300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>170100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="3">
         <v>519200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>543200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>507500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>612500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>633100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>652100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3254,70 +3362,73 @@
         <v>167300</v>
       </c>
       <c r="E48" s="3">
+        <v>167300</v>
+      </c>
+      <c r="F48" s="3">
         <v>166200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>168700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>186900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>183200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>187500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>192300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>211400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>249000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>226100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>190800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>192500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>195900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>154700</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
         <v>537600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>486300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>491300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>547700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>568100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>603200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3330,8 +3441,8 @@
       <c r="F49" s="3">
         <v>1000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
+      <c r="G49" s="3">
+        <v>1000</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -3348,8 +3459,8 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3363,32 +3474,35 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>32200</v>
-      </c>
-      <c r="U49" s="3">
-        <v>31900</v>
       </c>
       <c r="V49" s="3">
         <v>31900</v>
       </c>
       <c r="W49" s="3">
+        <v>31900</v>
+      </c>
+      <c r="X49" s="3">
         <v>35500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>35800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E52" s="3">
         <v>33800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>29700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>29700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>26500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>25300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>53400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>51700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>44900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18500</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>11000</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3">
         <v>66000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>65000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>57800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>50800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>51700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>556000</v>
+      </c>
+      <c r="E54" s="3">
         <v>559200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>567100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>336900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>289100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>278000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>296900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>319900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>332700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>406300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>417700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>377700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>375400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>389600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>335700</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3">
         <v>1154900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1126300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1088400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1246600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1288700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1338900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,434 +3926,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>24600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>23700</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>25800</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3">
         <v>203200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>221600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>223300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>281300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>280600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E58" s="3">
         <v>12800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>23000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>49100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>43500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>42100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>43900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>47800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>57100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>108900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>101900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>44500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>23700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6600</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
         <v>671400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>647600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>595400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>699000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>716500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>735600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E59" s="3">
         <v>19600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>38600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>41100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>43100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>56500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>77200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>61600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>73500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>112800</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3">
         <v>150800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>101600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>85700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>82600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>89900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E60" s="3">
         <v>36500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>88300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>73200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>75900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>89400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>109400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>113500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>162800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>170900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>133700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>93300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>104700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>145200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="3">
         <v>1025400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>970800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>904400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1062900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1087000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1129100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E61" s="3">
         <v>36100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>38800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>44000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>48100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>44800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>52500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>50100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>68400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>81200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>89100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>119300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>153200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>157800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>32500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>30300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>31100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28800</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E62" s="3">
         <v>19700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>33600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>67500</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
         <v>84400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>82600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>89000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>92000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>89500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E66" s="3">
         <v>137200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>153800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>197800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>185700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>184400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>206600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>225200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>238300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>313900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>329600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>287000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>280700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>294400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>245200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3">
         <v>1141000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1084400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1022300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1154900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1176400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1224200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-431100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-431800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-438800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-439600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-441500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-443700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-446700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-442300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-431400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-433800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-438900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-433500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-428400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-429900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-435500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>-524700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-493200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-470000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-444500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-424000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-429500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>422900</v>
+      </c>
+      <c r="E76" s="3">
         <v>422000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>413300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>139100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>103300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>93600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>90300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>94700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>94400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>92400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>88100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>90700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>94800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>95200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>90500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3">
         <v>13900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>41900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>66100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>91700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>112300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>114700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
         <v>7000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3200</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U81" s="3">
         <v>-31500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-23200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-25500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-20500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5461,35 +5660,38 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3">
         <v>4500</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U83" s="3">
         <v>17800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>20900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>24100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>19900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>18100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,32 +6057,35 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9900</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5884,38 +6101,41 @@
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S89" s="3">
         <v>18400</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U89" s="3">
         <v>-4900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-33800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>44600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5985,35 +6206,38 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
         <v>-80300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3">
         <v>-11300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,32 +6381,35 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>26100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1200</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
@@ -6195,38 +6425,41 @@
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
         <v>-156400</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3">
         <v>-8800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-30100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>17900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>26000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>5200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,32 +6779,35 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>244800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>32600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1400</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
@@ -6577,62 +6823,65 @@
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3">
         <v>102400</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U100" s="3">
         <v>16000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>50700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-48900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-19800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1900</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
@@ -6648,62 +6897,65 @@
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S101" s="3">
         <v>11600</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-6800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>260300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>24300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
@@ -6719,34 +6971,37 @@
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3">
         <v>-23900</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U102" s="3">
         <v>2000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>8500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>SOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,346 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E8" s="3">
         <v>15500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>21200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>66000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>27800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>44800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>103000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>36300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>151600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>156600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>232100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>187000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>250000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E9" s="3">
         <v>9500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>49700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>36400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>88800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>29900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>147500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>154900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>227100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>168200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>208900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E10" s="3">
         <v>6000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>14200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>18800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>41100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,26 +1088,29 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3">
         <v>5400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>5700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>5400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>7400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,49 +1183,52 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1217,8 +1236,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1226,23 +1245,26 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
         <v>4700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-100</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E17" s="3">
         <v>12800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>39800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>58600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>38900</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="3">
         <v>172000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>174400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>254000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>198800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>243700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>248200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5700</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>5900</v>
       </c>
       <c r="R18" s="3">
         <v>5900</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>8</v>
+      <c r="S18" s="3">
+        <v>5900</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V18" s="3">
         <v>-20400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-17800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-21900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>6300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,97 +1548,101 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>8100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
         <v>2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1646,216 +1682,225 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>-2600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>32500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="3">
         <v>1000</v>
       </c>
       <c r="F22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-29100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-26900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-22100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1863,31 +1908,34 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V24" s="3">
         <v>2400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>400</v>
       </c>
       <c r="Z24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3200</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V26" s="3">
         <v>-31500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-23200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-25500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-20500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3200</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="3">
         <v>-31500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-23200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-25500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-20500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2214,17 +2274,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2232,8 +2292,8 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-8100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3200</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V33" s="3">
         <v>-31500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-23200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-25500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-20500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3200</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V35" s="3">
         <v>-31500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-23200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-25500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-20500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>254100</v>
+      </c>
+      <c r="E41" s="3">
         <v>275400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>286000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>301000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24800</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>13400</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="3">
         <v>28600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>26600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>37300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>28800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>23700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,82 +3072,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E43" s="3">
         <v>48300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>39600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>36000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>29500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>21000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>46600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>49300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>50700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>47300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>55900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>58900</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>38500</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="3">
         <v>134000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>129700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>134100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>204000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>195900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3095,17 +3190,17 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
@@ -3113,174 +3208,183 @@
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V44" s="3">
         <v>92300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>153200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>144000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>185200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>165500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E45" s="3">
         <v>27500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>33200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>72300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>32300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>47700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>57400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>50800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>80900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>80500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>81200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>73800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>91600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>118100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3">
         <v>264300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>233600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>192100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>194500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>248100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>232700</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>329200</v>
+      </c>
+      <c r="E46" s="3">
         <v>351200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>357100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>370200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>136700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>72500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>68400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>84200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>103100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>106800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>138900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>138200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>135300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>138000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>175300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>170100</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V46" s="3">
         <v>519200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>543200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>507500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>612500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>633100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>652100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,82 +3457,88 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>167300</v>
+        <v>167100</v>
       </c>
       <c r="E48" s="3">
         <v>167300</v>
       </c>
       <c r="F48" s="3">
+        <v>167300</v>
+      </c>
+      <c r="G48" s="3">
         <v>166200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>168700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>186900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>183200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>187500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>192300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>211400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>249000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>226100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>190800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>192500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>195900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>154700</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3">
         <v>537600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>486300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>491300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>547700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>568100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>603200</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3444,8 +3554,8 @@
       <c r="G49" s="3">
         <v>1000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
+      <c r="H49" s="3">
+        <v>1000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -3462,8 +3572,8 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3477,32 +3587,35 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3">
         <v>32200</v>
-      </c>
-      <c r="V49" s="3">
-        <v>31900</v>
       </c>
       <c r="W49" s="3">
         <v>31900</v>
       </c>
       <c r="X49" s="3">
+        <v>31900</v>
+      </c>
+      <c r="Y49" s="3">
         <v>35500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>35800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E52" s="3">
         <v>36400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>33800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>29700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>29700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>26500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>25300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>53400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>51700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>44900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18500</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>11000</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3">
         <v>66000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>65000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>57800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>50800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>51700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>529300</v>
+      </c>
+      <c r="E54" s="3">
         <v>556000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>559200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>567100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>336900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>289100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>278000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>296900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>319900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>332700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>406300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>417700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>377700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>375400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>389600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>335700</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="3">
         <v>1154900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1126300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1088400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1246600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1288700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1338900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>24600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>23700</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>25800</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V57" s="3">
         <v>203200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>221600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>223300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>281300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>280600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E58" s="3">
         <v>12300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>23000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>49100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>43500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>42100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>43900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>57100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>108900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>101900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>44500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>23700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6600</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3">
         <v>671400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>647600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>595400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>699000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>716500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>735600</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E59" s="3">
         <v>19300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>38600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>41100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>42400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>43100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>56500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>77200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>61600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>73500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>112800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3">
         <v>150800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>101600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>85700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>82600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>89900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E60" s="3">
         <v>36400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>88300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>73200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>75900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>89400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>109400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>113500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>162800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>170900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>133700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>93300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>104700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>145200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V60" s="3">
         <v>1025400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>970800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>904400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1062900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1087000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1129100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E61" s="3">
         <v>31700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>44000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>48100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>44800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>52500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>50100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>68400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>81200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>89100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>119300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>153200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>157800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>32500</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>30300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>31100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28800</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E62" s="3">
         <v>19500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>33600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>67500</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3">
         <v>84400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>82600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>89000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>92000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>89500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>125300</v>
+      </c>
+      <c r="E66" s="3">
         <v>133000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>137200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>153800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>197800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>185700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>184400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>206600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>225200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>238300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>313900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>329600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>287000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>280700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>294400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>245200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="3">
         <v>1141000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1084400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1022300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1154900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1176400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1224200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-432700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-431100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-431800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-438800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-439600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-441500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-443700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-446700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-442300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-431400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-433800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-438900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-433500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-428400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-429900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-435500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3">
         <v>-524700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-493200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-470000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-444500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-424000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-429500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>404000</v>
+      </c>
+      <c r="E76" s="3">
         <v>422900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>422000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>413300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>139100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>103300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>93600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>90300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>94700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>94400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>92400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>88100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>90700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>94800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>95200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>90500</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="3">
         <v>13900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>41900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>66100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>91700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>112300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>114700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3200</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V81" s="3">
         <v>-31500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-23200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-25500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-20500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5663,35 +5861,38 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T83" s="3">
         <v>4500</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V83" s="3">
         <v>17800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>20900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>24100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>19900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>18100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,35 +6273,38 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
@@ -6104,38 +6320,41 @@
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T89" s="3">
         <v>18400</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V89" s="3">
         <v>-4900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-33800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>44600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6209,35 +6429,38 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3">
         <v>-80300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3">
         <v>-11300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,35 +6610,38 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>26100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
@@ -6428,38 +6657,41 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3">
         <v>-156400</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3">
         <v>-8800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-30100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>17900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>26000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>5200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,35 +7024,38 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>244800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>32600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
@@ -6826,65 +7071,68 @@
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T100" s="3">
         <v>102400</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V100" s="3">
         <v>16000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>50700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-48900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1900</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
@@ -6900,65 +7148,68 @@
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" s="3">
         <v>11600</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V101" s="3">
         <v>-300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-6800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>260300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
@@ -6974,34 +7225,37 @@
       <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="3">
         <v>-23900</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V102" s="3">
         <v>2000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-10700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>8500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>5100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>SOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="3">
         <v>22800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>66000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>27800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>44800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>103000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>36300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>151600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>156600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>232100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>187000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>250000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="3">
         <v>15600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>49700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>36400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>88800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>29900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>147500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>154900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>227100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>168200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>208900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>7200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>14200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>18800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>41100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1091,26 +1105,29 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3">
         <v>5400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>5700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>5400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>7400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,52 +1203,55 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1239,8 +1259,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1248,23 +1268,26 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>4700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-100</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E17" s="3">
         <v>24300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>58600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>38900</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="3">
         <v>172000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>174400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>254000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>198800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>243700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>248200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5700</v>
-      </c>
-      <c r="R18" s="3">
-        <v>5900</v>
       </c>
       <c r="S18" s="3">
         <v>5900</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>8</v>
+      <c r="T18" s="3">
+        <v>5900</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18" s="3">
         <v>-20400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-17800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-21900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-11800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,103 +1582,107 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>7200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>8100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4400</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1685,225 +1722,234 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
         <v>-2600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>9400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>5700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>32500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1000</v>
       </c>
       <c r="F22" s="3">
         <v>1000</v>
       </c>
       <c r="G22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-29100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-26900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-22100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-22400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1911,31 +1957,34 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="3">
         <v>2400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-3600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>400</v>
       </c>
       <c r="AA24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3200</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W26" s="3">
         <v>-31500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-23200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-25500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-20500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3200</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W27" s="3">
         <v>-31500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-23200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-25500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-20500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2277,17 +2338,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2295,8 +2356,8 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-8100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3200</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W33" s="3">
         <v>-31500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-23200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-25500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-20500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>5500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3200</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W35" s="3">
         <v>-31500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-23200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-25500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-20500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>5500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>222900</v>
+      </c>
+      <c r="E41" s="3">
         <v>254100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>275400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>286000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>301000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>40600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24800</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>13400</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W41" s="3">
         <v>28600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>26600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>37300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>28800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>23700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,85 +3165,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E43" s="3">
         <v>50400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>39600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>36000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>24700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>29500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>46600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>49300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>50700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>47300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>55900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>58900</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>38500</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="3">
         <v>134000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>129700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>134100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>204000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>195900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3193,17 +3289,17 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
+      <c r="S44" s="3">
+        <v>0</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
@@ -3211,203 +3307,212 @@
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W44" s="3">
         <v>92300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>153200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>144000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>185200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>165500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E45" s="3">
         <v>24700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>72300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>47700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>57400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>80900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>80500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>81200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>73800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>91600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>118100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3">
         <v>264300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>233600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>192100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>194500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>248100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>232700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>308400</v>
+      </c>
+      <c r="E46" s="3">
         <v>329200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>351200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>357100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>370200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>136700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>72500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>68400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>84200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>103100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>106800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>138900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>138200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>135300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>138000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>175300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>170100</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" s="3">
         <v>519200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>543200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>507500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>612500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>633100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>652100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3460,85 +3565,91 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>166300</v>
+      </c>
+      <c r="E48" s="3">
         <v>167100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>167300</v>
       </c>
       <c r="F48" s="3">
         <v>167300</v>
       </c>
       <c r="G48" s="3">
+        <v>167300</v>
+      </c>
+      <c r="H48" s="3">
         <v>166200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>168700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>186900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>183200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>187500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>192300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>211400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>249000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>226100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>190800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>192500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>195900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>154700</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48" s="3">
         <v>537600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>486300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>491300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>547700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>568100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>603200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3557,8 +3668,8 @@
       <c r="H49" s="3">
         <v>1000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+      <c r="I49" s="3">
+        <v>1000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -3575,8 +3686,8 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3590,32 +3701,35 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
         <v>32200</v>
-      </c>
-      <c r="W49" s="3">
-        <v>31900</v>
       </c>
       <c r="X49" s="3">
         <v>31900</v>
       </c>
       <c r="Y49" s="3">
+        <v>31900</v>
+      </c>
+      <c r="Z49" s="3">
         <v>35500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>35800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E52" s="3">
         <v>31900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>33800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>29700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>30400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>29700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>26500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>53400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>51700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>44900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18500</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>11000</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W52" s="3">
         <v>66000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>65000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>57800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>50800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>51700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>519900</v>
+      </c>
+      <c r="E54" s="3">
         <v>529300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>556000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>559200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>567100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>336900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>289100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>278000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>296900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>319900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>332700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>406300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>417700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>377700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>375400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>389600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>335700</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W54" s="3">
         <v>1154900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1126300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1088400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1246600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1288700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1338900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>24600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>23700</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>25800</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W57" s="3">
         <v>203200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>221600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>223300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>281300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>280600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E58" s="3">
         <v>11400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>23000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>49100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>43500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>42100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>43900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>47800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>57100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>108900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>101900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>44500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>23700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6600</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3">
         <v>671400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>647600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>595400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>699000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>716500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>735600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E59" s="3">
         <v>20000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>38600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>42400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>43100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>56500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>77200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>61600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>73500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>112800</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59" s="3">
         <v>150800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>101600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>85700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>82600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>89900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E60" s="3">
         <v>35100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>51100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>88300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>73200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>75900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>89400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>109400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>113500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>162800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>170900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>133700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>93300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>104700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>145200</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W60" s="3">
         <v>1025400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>970800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>904400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1062900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1087000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1129100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E61" s="3">
         <v>30000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>44000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>48100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>44800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>52500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>50100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>68400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>81200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>89100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>119300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>153200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>157800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>32500</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>30300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>31100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>28800</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E62" s="3">
         <v>15800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>33600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>67500</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3">
         <v>84400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>82600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>89000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>92000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>89500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>120400</v>
+      </c>
+      <c r="E66" s="3">
         <v>125300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>133000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>137200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>153800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>197800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>185700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>184400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>206600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>225200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>238300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>313900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>329600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>287000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>280700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>294400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>245200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W66" s="3">
         <v>1141000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1084400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1022300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1154900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1176400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1224200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-434400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-432700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-431100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-431800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-438800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-439600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-441500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-443700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-446700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-442300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-431400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-433800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-438900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-433500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-428400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-429900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-435500</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W72" s="3">
         <v>-524700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-493200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-470000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-444500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-424000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-429500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>399500</v>
+      </c>
+      <c r="E76" s="3">
         <v>404000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>422900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>422000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>413300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>139100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>103300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>93600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>90300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>94700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>94400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>92400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>88100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>90700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>94800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>95200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>90500</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W76" s="3">
         <v>13900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>41900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>66100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>91700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>112300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>114700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3200</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W81" s="3">
         <v>-31500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-23200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-25500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-20500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>5500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5864,35 +6063,38 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U83" s="3">
         <v>4500</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W83" s="3">
         <v>17800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>20900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>24100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>19900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>18100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,38 +6490,41 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E89" s="3">
         <v>8800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
@@ -6323,38 +6540,41 @@
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U89" s="3">
         <v>18400</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W89" s="3">
         <v>-4900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-33800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>44600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6432,35 +6653,38 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3">
         <v>-80300</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W91" s="3">
         <v>-11300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-11400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,38 +6840,41 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>26100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
@@ -6660,38 +6890,41 @@
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3">
         <v>-156400</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="3">
         <v>-8800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-30100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>17900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>26000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>5200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,38 +7270,41 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-23700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>244800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>32600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
@@ -7074,68 +7320,71 @@
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U100" s="3">
         <v>102400</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W100" s="3">
         <v>16000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>50700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-48900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-19800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1900</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
@@ -7151,68 +7400,71 @@
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U101" s="3">
         <v>11600</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W101" s="3">
         <v>-300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-6800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>260300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>24300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
@@ -7228,34 +7480,37 @@
       <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U102" s="3">
         <v>-23900</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W102" s="3">
         <v>2000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-10700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>8500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>5100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-15000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>SOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>66000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>27800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>44800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>103000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>36300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>151600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>156600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>232100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>187000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>250000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>49700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>19600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>36400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>88800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>29900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>147500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>154900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>227100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>168200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>208900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>14200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>18800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>41100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,26 +1122,29 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3">
         <v>5400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>5700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>5400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>6300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>7400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,55 +1223,58 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1262,8 +1282,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1271,23 +1291,26 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>4700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-100</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E17" s="3">
         <v>5700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>39800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>58600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>38900</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="3">
         <v>172000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>174400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>254000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>198800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>243700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>248200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5700</v>
-      </c>
-      <c r="S18" s="3">
-        <v>5900</v>
       </c>
       <c r="T18" s="3">
         <v>5900</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>8</v>
+      <c r="U18" s="3">
+        <v>5900</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X18" s="3">
         <v>-20400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-17800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-21900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-11800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>6300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,109 +1616,113 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>7200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>8100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1725,234 +1762,243 @@
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="3">
         <v>-2600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>9400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>5700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>32500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1000</v>
       </c>
       <c r="G22" s="3">
         <v>1000</v>
       </c>
       <c r="H22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>9200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>7400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>8500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-29100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-26900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-22100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-22400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>5900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1960,31 +2006,34 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X24" s="3">
         <v>2400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-1900</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>400</v>
       </c>
       <c r="AB24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3200</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X26" s="3">
         <v>-31500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-23200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-25500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-20500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>5500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3200</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X27" s="3">
         <v>-31500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-23200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-25500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-20500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>5500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2341,17 +2402,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2359,8 +2420,8 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-8100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3200</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X33" s="3">
         <v>-31500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-23200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-25500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-20500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>5500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3200</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X35" s="3">
         <v>-31500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-23200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-25500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-20500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>5500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>207900</v>
+      </c>
+      <c r="E41" s="3">
         <v>222900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>254100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>275400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>286000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>301000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>40600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24800</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>13400</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X41" s="3">
         <v>28600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>26600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>37300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>28800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>23700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,88 +3258,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E43" s="3">
         <v>46700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>50400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>48300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>36000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>23800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>24700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>29500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>46600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>49300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>50700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>47300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>55900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>58900</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>38500</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X43" s="3">
         <v>134000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>129700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>134100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>204000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>195900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3292,17 +3388,17 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
+      <c r="T44" s="3">
+        <v>0</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>8</v>
@@ -3310,194 +3406,203 @@
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X44" s="3">
         <v>92300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>153200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>144000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>185200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>165500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E45" s="3">
         <v>38800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>33200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>72300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>47700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>57400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>50800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>80900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>80500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>81200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>73800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>91600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>118100</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X45" s="3">
         <v>264300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>233600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>192100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>194500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>248100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>232700</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>285700</v>
+      </c>
+      <c r="E46" s="3">
         <v>308400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>329200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>351200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>357100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>370200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>136700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>72500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>68400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>84200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>103100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>106800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>138900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>138200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>135300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>138000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>175300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>170100</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X46" s="3">
         <v>519200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>543200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>507500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>612500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>633100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>652100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>10000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
+      <c r="E47" s="3">
+        <v>10000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -3514,8 +3619,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3568,88 +3673,94 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>160600</v>
+      </c>
+      <c r="E48" s="3">
         <v>166300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>167100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>167300</v>
       </c>
       <c r="G48" s="3">
         <v>167300</v>
       </c>
       <c r="H48" s="3">
+        <v>167300</v>
+      </c>
+      <c r="I48" s="3">
         <v>166200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>168700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>186900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>183200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>187500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>192300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>211400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>249000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>226100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>190800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>192500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>195900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>154700</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X48" s="3">
         <v>537600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>486300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>491300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>547700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>568100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>603200</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3671,8 +3782,8 @@
       <c r="I49" s="3">
         <v>1000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="J49" s="3">
+        <v>1000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -3689,8 +3800,8 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3704,32 +3815,35 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
+      <c r="U49" s="3">
+        <v>0</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X49" s="3">
         <v>32200</v>
-      </c>
-      <c r="X49" s="3">
-        <v>31900</v>
       </c>
       <c r="Y49" s="3">
         <v>31900</v>
       </c>
       <c r="Z49" s="3">
+        <v>31900</v>
+      </c>
+      <c r="AA49" s="3">
         <v>35500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>35800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E52" s="3">
         <v>34200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>31900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>33800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>29700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>30400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>29700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>25300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>24600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>53400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>51700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>44900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18500</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>11000</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X52" s="3">
         <v>66000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>65000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>57800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>50800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>51700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500300</v>
+      </c>
+      <c r="E54" s="3">
         <v>519900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>529300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>556000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>559200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>567100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>336900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>289100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>278000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>296900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>319900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>332700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>406300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>417700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>377700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>375400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>389600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>335700</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X54" s="3">
         <v>1154900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1126300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1088400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1246600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1288700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1338900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4318,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>24600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>23700</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
       <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>25800</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X57" s="3">
         <v>203200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>221600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>223300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>281300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>280600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E58" s="3">
         <v>12200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>23000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>49100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>43500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>42100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>43900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>47800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>57100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>108900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>101900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>44500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>15100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>23700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6600</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="3">
         <v>671400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>647600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>595400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>699000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>716500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>735600</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E59" s="3">
         <v>17400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>38600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>42400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>43100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>56500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>77200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>61600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>73500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>112800</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X59" s="3">
         <v>150800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>101600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>85700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>82600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>89900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E60" s="3">
         <v>33800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>35100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>51100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>88300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>73200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>75900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>89400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>109400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>113500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>162800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>170900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>133700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>93300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>104700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>145200</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X60" s="3">
         <v>1025400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>970800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>904400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1062900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1087000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1129100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E61" s="3">
         <v>26900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>30000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>31700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>44000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>48100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>52500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>50100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>68400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>81200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>89100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>119300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>153200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>157800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>32500</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>30300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>31100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>28800</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E62" s="3">
         <v>15500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>33600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
       <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
         <v>67500</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3">
         <v>84400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>82600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>89000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>92000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>89500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E66" s="3">
         <v>120400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>125300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>133000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>137200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>153800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>197800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>185700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>184400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>206600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>225200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>238300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>313900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>329600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>287000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>280700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>294400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>245200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X66" s="3">
         <v>1141000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1084400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1022300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1154900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1176400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1224200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-434600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-434400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-432700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-431100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-431800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-438800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-439600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-441500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-443700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-446700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-442300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-431400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-433800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-438900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-433500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-428400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-429900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-435500</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X72" s="3">
         <v>-524700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-493200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-470000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-444500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-424000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-429500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>390200</v>
+      </c>
+      <c r="E76" s="3">
         <v>399500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>404000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>422900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>422000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>413300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>139100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>103300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>93600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>90300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>94700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>94400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>92400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>88100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>90700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>94800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>95200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>90500</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X76" s="3">
         <v>13900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>41900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>66100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>91700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>112300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>114700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3200</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X81" s="3">
         <v>-31500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-23200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-25500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-20500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>5500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6066,35 +6265,38 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V83" s="3">
         <v>4500</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X83" s="3">
         <v>17800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>20900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>24100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>19900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>18100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,41 +6707,44 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
@@ -6543,38 +6760,41 @@
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V89" s="3">
         <v>18400</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X89" s="3">
         <v>-4900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-33800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>44600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-9100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6656,35 +6877,38 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3">
         <v>-80300</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X91" s="3">
         <v>-11300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,41 +7070,44 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>26100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
@@ -6893,38 +7123,41 @@
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3">
         <v>-156400</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X94" s="3">
         <v>-8800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-30100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>17900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>26000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>5200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,41 +7516,44 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>244800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>32600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
@@ -7323,71 +7569,74 @@
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V100" s="3">
         <v>102400</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X100" s="3">
         <v>16000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>50700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-48900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-19800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1900</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
@@ -7403,71 +7652,74 @@
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V101" s="3">
         <v>11600</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X101" s="3">
         <v>-300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-6800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-31500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>260300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>24300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
@@ -7483,34 +7735,37 @@
       <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V102" s="3">
         <v>-23900</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X102" s="3">
         <v>2000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-10700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>8500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>5100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-15000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>SOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E8" s="3">
         <v>8200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>66000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>27800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>44800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>103000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>36300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>151600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>156600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>232100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>187000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>250000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E9" s="3">
         <v>4500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>49700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>19600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>36400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>88800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>29900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>147500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>154900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>227100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>168200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>208900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>16300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>14200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>18800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>41100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1125,26 +1139,29 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3">
         <v>5400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>5700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>5400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>6300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>7400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,58 +1243,61 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1285,8 +1305,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1294,23 +1314,26 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
         <v>4700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-100</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E17" s="3">
         <v>8400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>39800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>58600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>38900</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="3">
         <v>172000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>174400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>254000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>198800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>243700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>248200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5700</v>
-      </c>
-      <c r="T18" s="3">
-        <v>5900</v>
       </c>
       <c r="U18" s="3">
         <v>5900</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>8</v>
+      <c r="V18" s="3">
+        <v>5900</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-20400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-17800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-21900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-11800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>6300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,91 +1650,95 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1100</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>7200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>8100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1711,21 +1748,21 @@
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1765,243 +1802,252 @@
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>9400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>5700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>32500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1000</v>
       </c>
       <c r="H22" s="3">
         <v>1000</v>
       </c>
       <c r="I22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>9200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>7400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>8200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>8500</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-29100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-26900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-22100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-22400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>5900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -2009,31 +2055,34 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y24" s="3">
         <v>2400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-1900</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>400</v>
       </c>
       <c r="AC24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3200</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-31500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-23200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-25500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-20500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>5500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3200</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-31500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-23200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-25500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-20500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>5500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2405,17 +2466,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2423,8 +2484,8 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1100</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-8100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3200</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-31500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-23200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-25500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-20500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>5500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3200</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-31500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-23200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-25500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-20500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>5500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E41" s="3">
         <v>207900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>222900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>254100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>275400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>286000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>301000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>40600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>24800</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>13400</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y41" s="3">
         <v>28600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>26600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>37300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>28800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>23700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,91 +3351,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E43" s="3">
         <v>39400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>46700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>50400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>48300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>36000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>23800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>29500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>46600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>49300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>50700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>47300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>55900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>58900</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>38500</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y43" s="3">
         <v>134000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>129700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>134100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>204000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>195900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3391,17 +3487,17 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3">
         <v>200</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
+      <c r="U44" s="3">
+        <v>0</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>8</v>
@@ -3409,192 +3505,201 @@
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y44" s="3">
         <v>92300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>153200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>144000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>185200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>165500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E45" s="3">
         <v>38400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>33200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>72300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>47700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>57400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>50800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>80900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>80500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>81200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>73800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>91600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>118100</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y45" s="3">
         <v>264300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>233600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>192100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>194500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>248100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>232700</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>211700</v>
+      </c>
+      <c r="E46" s="3">
         <v>285700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>308400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>329200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>351200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>357100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>370200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>136700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>72500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>68400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>84200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>103100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>106800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>138900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>138200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>135300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>138000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>175300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>170100</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y46" s="3">
         <v>519200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>543200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>507500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>612500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>633100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>652100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3604,8 +3709,8 @@
       <c r="E47" s="3">
         <v>10000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
+      <c r="F47" s="3">
+        <v>10000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -3622,8 +3727,8 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3676,91 +3781,97 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>202700</v>
+      </c>
+      <c r="E48" s="3">
         <v>160600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>166300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>167100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>167300</v>
       </c>
       <c r="H48" s="3">
         <v>167300</v>
       </c>
       <c r="I48" s="3">
+        <v>167300</v>
+      </c>
+      <c r="J48" s="3">
         <v>166200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>168700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>186900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>183200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>187500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>192300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>211400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>249000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>226100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>190800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>192500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>195900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>154700</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="3">
         <v>537600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>486300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>491300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>547700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>568100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>603200</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3785,8 +3896,8 @@
       <c r="J49" s="3">
         <v>1000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
+      <c r="K49" s="3">
+        <v>1000</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
@@ -3803,8 +3914,8 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3818,32 +3929,35 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
+      <c r="V49" s="3">
+        <v>0</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="3">
         <v>32200</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>31900</v>
       </c>
       <c r="Z49" s="3">
         <v>31900</v>
       </c>
       <c r="AA49" s="3">
+        <v>31900</v>
+      </c>
+      <c r="AB49" s="3">
         <v>35500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>35800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4125,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E52" s="3">
         <v>42900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>34200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>31900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>33800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>29700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>30400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>25300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>24600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>53400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>51700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>44900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18500</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>11000</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y52" s="3">
         <v>66000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>65000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>57800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>50800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>51700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>467200</v>
+      </c>
+      <c r="E54" s="3">
         <v>500300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>519900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>529300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>556000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>559200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>567100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>336900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>289100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>278000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>296900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>319900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>332700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>406300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>417700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>377700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>375400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>389600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>335700</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y54" s="3">
         <v>1154900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1126300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1088400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1246600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1288700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1338900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,506 +4449,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>24600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>23700</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>25800</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y57" s="3">
         <v>203200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>221600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>223300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>281300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>280600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>23000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>49100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>43500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>42100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>43900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>47800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>57100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>108900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>101900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>44500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>15100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>23700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6600</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3">
         <v>671400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>647600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>595400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>699000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>716500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>735600</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E59" s="3">
         <v>17700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>38600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>41100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>42400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>43100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>56500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>77200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>61600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>73500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>112800</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y59" s="3">
         <v>150800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>101600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>85700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>82600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>89900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E60" s="3">
         <v>31100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>35100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>51100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>88300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>73200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>75900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>89400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>109400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>113500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>162800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>170900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>133700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>93300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>104700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>145200</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1025400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>970800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>904400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1062900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1087000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1129100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>26900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>30000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>31700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>36100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>38800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>44000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>48100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>52500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>50100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>68400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>81200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>89100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>119300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>153200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>157800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>32500</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>30300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>31100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>28800</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E62" s="3">
         <v>15400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>33600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>35300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
       <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
         <v>67500</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="3">
         <v>84400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>82600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>89000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>92000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>89500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E66" s="3">
         <v>110100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>120400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>125300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>133000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>137200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>153800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>197800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>185700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>184400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>206600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>225200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>238300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>313900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>329600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>287000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>280700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>294400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>245200</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1141000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1084400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1022300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1154900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1176400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1224200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-431600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-434600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-434400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-432700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-431100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-431800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-438800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-439600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-441500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-443700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-446700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-442300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-431400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-433800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-438900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-433500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-428400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-429900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-435500</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-524700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-493200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-470000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-444500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-424000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-429500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>339100</v>
+      </c>
+      <c r="E76" s="3">
         <v>390200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>399500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>404000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>422900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>422000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>413300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>139100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>103300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>93600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>90300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>94700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>94400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>92400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>88100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>90700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>94800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>95200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>90500</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y76" s="3">
         <v>13900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>41900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>66100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>91700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>112300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>114700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3200</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-31500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-23200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-25500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-20500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>5500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6268,35 +6467,38 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W83" s="3">
         <v>4500</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y83" s="3">
         <v>17800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>20900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>24100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>19900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>18100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,44 +6924,47 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
@@ -6763,38 +6980,41 @@
       <c r="S89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W89" s="3">
         <v>18400</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-33800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>44600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-9100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6880,35 +7101,38 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W91" s="3">
         <v>-80300</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,44 +7300,47 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>26100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
@@ -7126,38 +7356,41 @@
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="3">
         <v>-156400</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-30100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>17900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>26000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>5200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,44 +7762,47 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-23700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>244800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>32600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
@@ -7572,74 +7818,77 @@
       <c r="S100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W100" s="3">
         <v>102400</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y100" s="3">
         <v>16000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>50700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-48900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-19800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-4200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1900</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
@@ -7655,74 +7904,77 @@
       <c r="S101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W101" s="3">
         <v>11600</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-6800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-21500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>260300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>24300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
@@ -7738,34 +7990,37 @@
       <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W102" s="3">
         <v>-23900</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y102" s="3">
         <v>2000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>8500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>5100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-15000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>SOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,397 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E8" s="3">
         <v>28900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>66000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>27800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>44800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>103000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>36300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>151600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>156600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>232100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>187000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>250000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E9" s="3">
         <v>20300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>49700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>19600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>36400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>88800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>29900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>147500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>154900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>227100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>168200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>208900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>16300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>14200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>18800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>41100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,26 +1155,29 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3">
         <v>5400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>5700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>5400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>6300</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>7400</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,61 +1262,64 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1308,8 +1327,8 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1317,23 +1336,26 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA14" s="3">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="3">
         <v>4700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-100</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>23800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>39800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>58600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>38900</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="3">
         <v>172000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>174400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>254000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>198800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>243700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>248200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>5100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5700</v>
-      </c>
-      <c r="U18" s="3">
-        <v>5900</v>
       </c>
       <c r="V18" s="3">
         <v>5900</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>8</v>
+      <c r="W18" s="3">
+        <v>5900</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-20400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-17800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-21900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-11800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>6300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,94 +1683,98 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1100</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>7200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>8100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1751,21 +1787,21 @@
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1805,252 +1841,261 @@
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>9400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>5700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>32500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1000</v>
       </c>
       <c r="I22" s="3">
         <v>1000</v>
       </c>
       <c r="J22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>9200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>7400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>8200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>8500</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
         <v>3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-29100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-26900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-22100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-22400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>5900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -2058,31 +2103,34 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="3">
         <v>2400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-1900</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>400</v>
       </c>
       <c r="AD24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3500</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3200</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-31500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-23200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-25500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-20500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>5500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E27" s="3">
         <v>3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3200</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-31500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-23200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-25500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-20500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>5500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2469,17 +2529,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2487,8 +2547,8 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
@@ -2511,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1100</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-7200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-8100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E33" s="3">
         <v>3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3200</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-31500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-23200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-25500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-20500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>5500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E35" s="3">
         <v>3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3200</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-31500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-23200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-25500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-20500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>5500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>107100</v>
+      </c>
+      <c r="E41" s="3">
         <v>123000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>207900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>222900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>254100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>275400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>286000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>301000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>40600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>24800</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>13400</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="3">
         <v>28600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>26600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>37300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>28800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>23700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,94 +3443,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E43" s="3">
         <v>52700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>39400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>46700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>50400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>48300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>39600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>36000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>29500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>46600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>49300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>50700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>47300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>55900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>58900</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>38500</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z43" s="3">
         <v>134000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>129700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>134100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>204000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>195900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3490,17 +3585,17 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
         <v>200</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
+      <c r="V44" s="3">
+        <v>0</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
@@ -3508,203 +3603,212 @@
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z44" s="3">
         <v>92300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>153200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>144000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>185200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>165500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E45" s="3">
         <v>36000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>33200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>72300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>47700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>57400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>50800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>80900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>80500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>81200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>73800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>91600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>118100</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3">
         <v>264300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>233600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>192100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>194500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>248100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>232700</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>226900</v>
+      </c>
+      <c r="E46" s="3">
         <v>211700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>285700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>308400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>329200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>351200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>357100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>370200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>136700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>72500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>68400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>84200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>103100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>106800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>138900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>138200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>135300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>138000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>175300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>170100</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="3">
         <v>519200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>543200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>507500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>612500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>633100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>652100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>10000</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3">
         <v>10000</v>
@@ -3712,8 +3816,8 @@
       <c r="F47" s="3">
         <v>10000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
+      <c r="G47" s="3">
+        <v>10000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -3730,8 +3834,8 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3784,94 +3888,100 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>217600</v>
+      </c>
+      <c r="E48" s="3">
         <v>202700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>160600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>166300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>167100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>167300</v>
       </c>
       <c r="I48" s="3">
         <v>167300</v>
       </c>
       <c r="J48" s="3">
+        <v>167300</v>
+      </c>
+      <c r="K48" s="3">
         <v>166200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>168700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>186900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>183200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>187500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>192300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>211400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>249000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>226100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>190800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>192500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>195900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>154700</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="3">
         <v>537600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>486300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>491300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>547700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>568100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>603200</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3899,8 +4009,8 @@
       <c r="K49" s="3">
         <v>1000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
+      <c r="L49" s="3">
+        <v>1000</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
@@ -3917,8 +4027,8 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3932,32 +4042,35 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
+      <c r="W49" s="3">
+        <v>0</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="3">
         <v>32200</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>31900</v>
       </c>
       <c r="AA49" s="3">
         <v>31900</v>
       </c>
       <c r="AB49" s="3">
+        <v>31900</v>
+      </c>
+      <c r="AC49" s="3">
         <v>35500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>35800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E52" s="3">
         <v>41800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>42900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>34200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>31900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>33800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>29700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>30400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>25300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>24600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>53400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>51700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>44900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18500</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
       <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>11000</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="3">
         <v>66000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>65000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>57800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>50800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>51700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500500</v>
+      </c>
+      <c r="E54" s="3">
         <v>467200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>519900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>529300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>556000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>559200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>567100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>336900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>289100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>278000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>296900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>319900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>332700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>406300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>417700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>377700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>375400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>389600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>335700</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z54" s="3">
         <v>1154900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1126300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1088400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1246600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1288700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1338900</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>6500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>24600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>23700</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>25800</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z57" s="3">
         <v>203200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>221600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>223300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>281300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>280600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>23000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>49100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>43500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>42100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>43900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>47800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>57100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>108900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>101900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>44500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>15100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>23700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6600</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3">
         <v>671400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>647600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>595400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>699000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>716500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>735600</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>38600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>41100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>42400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>43100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>56500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>77200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>61600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>73500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>112800</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="3">
         <v>150800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>101600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>85700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>82600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>89900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E60" s="3">
         <v>34000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>35100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>51100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>88300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>73200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>75900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>89400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>109400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>113500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>162800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>170900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>133700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>93300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>104700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>145200</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1025400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>970800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>904400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1062900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1087000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1129100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E61" s="3">
         <v>38000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>26900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>30000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>31700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>36100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>38800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>48100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>52500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>50100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>68400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>81200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>89100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>119300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>153200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>157800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>32500</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>30300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>31100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>28800</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
       <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E62" s="3">
         <v>15500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>33600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
       <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
         <v>67500</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="3">
         <v>84400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>82600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>89000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>92000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>89500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>142300</v>
+      </c>
+      <c r="E66" s="3">
         <v>128100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>110100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>120400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>125300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>133000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>137200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>153800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>197800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>185700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>184400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>206600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>225200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>238300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>313900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>329600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>287000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>280700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>294400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>245200</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z66" s="3">
         <v>1141000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1084400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1022300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1154900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1176400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1224200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-426800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-431600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-434600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-434400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-432700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-431100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-431800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-438800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-439600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-441500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-443700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-446700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-442300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-431400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-433800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-438900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-433500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-428400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-429900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-435500</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-524700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-493200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-470000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-444500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-424000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-429500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>358200</v>
+      </c>
+      <c r="E76" s="3">
         <v>339100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>390200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>399500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>404000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>422900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>422000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>413300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>139100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>103300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>93600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>90300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>94700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>94400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>92400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>88100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>90700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>94800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>95200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>90500</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z76" s="3">
         <v>13900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>41900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>66100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>91700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>112300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>114700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E81" s="3">
         <v>3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3200</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-31500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-23200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-25500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-20500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>5500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6470,35 +6668,38 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X83" s="3">
         <v>4500</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z83" s="3">
         <v>17800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>20900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>24100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>19900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>18100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,47 +7140,50 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
@@ -6983,38 +7199,41 @@
       <c r="T89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X89" s="3">
         <v>18400</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-33800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>44600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-9100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7104,35 +7324,38 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X91" s="3">
         <v>-80300</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,47 +7529,50 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>26100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
@@ -7359,38 +7588,41 @@
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X94" s="3">
         <v>-156400</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-30100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>17900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>26000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>5200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,47 +8007,50 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-45700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-23700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>244800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>32600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
@@ -7821,77 +8066,80 @@
       <c r="T100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X100" s="3">
         <v>102400</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z100" s="3">
         <v>16000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>50700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-48900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-19800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-4200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1900</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
@@ -7907,77 +8155,80 @@
       <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X101" s="3">
         <v>11600</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-6800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>278500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-85000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-21500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>260300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>24300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
@@ -7993,34 +8244,37 @@
       <c r="T102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X102" s="3">
         <v>-23900</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z102" s="3">
         <v>2000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-10700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>8500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>5100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-15000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>SOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
         <v>20700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>28900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>66000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>27800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>44800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>103000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>36300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>151600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>156600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>232100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>187000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>250000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E9" s="3">
         <v>18700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>49700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>19600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>36400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>88800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>29900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>147500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>154900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>227100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>168200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>208900</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
         <v>2000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>16300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>14200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>5000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>18800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>41100</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1158,26 +1172,29 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3">
         <v>5400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>5700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>5400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>6300</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>7400</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,64 +1282,67 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5500</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1330,8 +1350,8 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1339,23 +1359,26 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB14" s="3">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="3">
         <v>4700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-100</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
       <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1482,88 +1509,91 @@
         <v>8</v>
       </c>
       <c r="E17" s="3">
+        <v>25900</v>
+      </c>
+      <c r="F17" s="3">
         <v>23800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>39800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>58600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>38900</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA17" s="3">
         <v>172000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>174400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>254000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>198800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>243700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>248200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,88 +1601,91 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F18" s="3">
         <v>5100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5700</v>
-      </c>
-      <c r="V18" s="3">
-        <v>5900</v>
       </c>
       <c r="W18" s="3">
         <v>5900</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>8</v>
+      <c r="X18" s="3">
+        <v>5900</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-20400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-17800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-21900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-11800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>6300</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1693,96 +1727,99 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1100</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>7200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>8100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="E21" s="3">
+        <v>500</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
@@ -1790,21 +1827,21 @@
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1844,261 +1881,270 @@
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>9400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>5700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>32500</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1000</v>
       </c>
       <c r="J22" s="3">
         <v>1000</v>
       </c>
       <c r="K22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>9200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>7400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>8200</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>8500</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>500</v>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F23" s="3">
         <v>3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-29100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-26900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-22100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-22400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>5900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -2106,31 +2152,34 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA24" s="3">
         <v>2400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-1900</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>400</v>
       </c>
       <c r="AE24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>3000</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F26" s="3">
         <v>3500</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3200</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-31500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-23200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-25500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-20500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>5500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>3400</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F27" s="3">
         <v>3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3200</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-31500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-23200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-25500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-20500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>5500</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2532,17 +2593,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2550,8 +2611,8 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2761,177 +2831,183 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1100</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-7200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>2400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-8100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>3400</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F33" s="3">
         <v>3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3200</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-31500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-23200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-25500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-20500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>5500</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>3400</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F35" s="3">
         <v>3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3200</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-31500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-23200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-25500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-20500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>5500</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E41" s="3">
         <v>107100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>123000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>207900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>222900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>254100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>275400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>286000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>301000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>24800</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>13400</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="3">
         <v>28600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>26600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>37300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>28800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>23700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,97 +3536,103 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>46300</v>
+        <v>79100</v>
       </c>
       <c r="E43" s="3">
+        <v>71500</v>
+      </c>
+      <c r="F43" s="3">
         <v>52700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>39400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>46700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>50400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>48300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>39600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>36000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>29500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>46600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>49300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>50700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>47300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>55900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>58900</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>38500</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA43" s="3">
         <v>134000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>129700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>134100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>204000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>195900</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3588,17 +3684,17 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V44" s="3">
         <v>200</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
+      <c r="W44" s="3">
+        <v>0</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>8</v>
@@ -3606,204 +3702,213 @@
       <c r="Y44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA44" s="3">
         <v>92300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>153200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>144000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>185200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>165500</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33700</v>
+        <v>54900</v>
       </c>
       <c r="E45" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F45" s="3">
         <v>36000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>33200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>72300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>47700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>57400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>50800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>80900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>80500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>81200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>73800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>91600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>118100</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="3">
         <v>264300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>233600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>192100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>194500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>248100</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>232700</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>226900</v>
+        <v>210700</v>
       </c>
       <c r="E46" s="3">
+        <v>220700</v>
+      </c>
+      <c r="F46" s="3">
         <v>211700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>285700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>308400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>329200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>351200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>357100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>370200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>136700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>72500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>68400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>84200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>103100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>106800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>138900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>138200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>135300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>138000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>175300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>170100</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA46" s="3">
         <v>519200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>543200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>507500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>612500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>633100</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>652100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3819,8 +3924,8 @@
       <c r="G47" s="3">
         <v>10000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="H47" s="3">
+        <v>10000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -3837,8 +3942,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3891,97 +3996,103 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>217600</v>
+        <v>216500</v>
       </c>
       <c r="E48" s="3">
+        <v>214800</v>
+      </c>
+      <c r="F48" s="3">
         <v>202700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>160600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>166300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>167100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>167300</v>
       </c>
       <c r="J48" s="3">
         <v>167300</v>
       </c>
       <c r="K48" s="3">
+        <v>167300</v>
+      </c>
+      <c r="L48" s="3">
         <v>166200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>168700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>186900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>183200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>187500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>192300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>211400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>249000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>226100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>190800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>192500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>195900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>154700</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="3">
         <v>537600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>486300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>491300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>547700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>568100</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>603200</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4012,8 +4123,8 @@
       <c r="L49" s="3">
         <v>1000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="M49" s="3">
+        <v>1000</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -4030,8 +4141,8 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -4045,32 +4156,35 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
+      <c r="X49" s="3">
+        <v>0</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3">
         <v>32200</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>31900</v>
       </c>
       <c r="AB49" s="3">
         <v>31900</v>
       </c>
       <c r="AC49" s="3">
+        <v>31900</v>
+      </c>
+      <c r="AD49" s="3">
         <v>35500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>35800</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>45000</v>
+        <v>53500</v>
       </c>
       <c r="E52" s="3">
+        <v>47200</v>
+      </c>
+      <c r="F52" s="3">
         <v>41800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>42900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>34200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>31900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>36400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>33800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>30400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>25300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>24600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>53400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>51700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>44900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18500</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
       <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
         <v>11000</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA52" s="3">
         <v>66000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>65000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>57800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>50800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>51700</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>500500</v>
+        <v>481700</v>
       </c>
       <c r="E54" s="3">
+        <v>493900</v>
+      </c>
+      <c r="F54" s="3">
         <v>467200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>500300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>519900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>529300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>556000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>559200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>567100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>336900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>289100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>278000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>296900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>319900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>332700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>406300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>417700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>377700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>375400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>389600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>335700</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA54" s="3">
         <v>1154900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1126300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1088400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1246600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1288700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1338900</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3600</v>
+        <v>5900</v>
       </c>
       <c r="E57" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F57" s="3">
         <v>6500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>20400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>24600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>23700</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
       <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <v>25800</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA57" s="3">
         <v>203200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>221600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>223300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>281300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>280600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E58" s="3">
         <v>11000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>23000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>49100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>43500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>42100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>43900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>47800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>57100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>108900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>101900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>44500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>15100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>23700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6600</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="3">
         <v>671400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>647600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>595400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>699000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>716500</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>735600</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28000</v>
+        <v>27900</v>
       </c>
       <c r="E59" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F59" s="3">
         <v>17400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>38600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>41100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>42400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>43100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>56500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>77200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>61600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>73500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>112800</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA59" s="3">
         <v>150800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>101600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>85700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>82600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>89900</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>42600</v>
+        <v>43700</v>
       </c>
       <c r="E60" s="3">
+        <v>43300</v>
+      </c>
+      <c r="F60" s="3">
         <v>34000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>35100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>51100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>88300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>73200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>75900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>89400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>109400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>113500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>162800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>170900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>133700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>93300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>104700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>145200</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA60" s="3">
         <v>1025400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>970800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>904400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1062900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1087000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1129100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E61" s="3">
         <v>37500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>38000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>26900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>31700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>36100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>48100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>44800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>52500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>50100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>68400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>81200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>89100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>119300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>153200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>157800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>32500</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>30300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>31100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>28800</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
       <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20900</v>
+        <v>24100</v>
       </c>
       <c r="E62" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F62" s="3">
         <v>15500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>19700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>33600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
       <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
         <v>67500</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" s="3">
         <v>84400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>82600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>89000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>92000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>89500</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>142300</v>
+        <v>146000</v>
       </c>
       <c r="E66" s="3">
+        <v>146600</v>
+      </c>
+      <c r="F66" s="3">
         <v>128100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>110100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>120400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>125300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>133000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>137200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>153800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>197800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>185700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>184400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>206600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>225200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>238300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>313900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>329600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>287000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>280700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>294400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>245200</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA66" s="3">
         <v>1141000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1084400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1022300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1154900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1176400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1224200</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-426800</v>
+        <v>-437600</v>
       </c>
       <c r="E72" s="3">
+        <v>-437400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-431600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-434600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-434400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-432700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-431100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-431800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-438800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-439600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-441500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-443700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-446700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-442300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-431400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-433800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-438900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-433500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-428400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-429900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-435500</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-524700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-493200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-470000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-444500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-424000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-429500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>358200</v>
+        <v>335700</v>
       </c>
       <c r="E76" s="3">
+        <v>347300</v>
+      </c>
+      <c r="F76" s="3">
         <v>339100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>390200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>399500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>404000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>422900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>422000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>413300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>139100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>103300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>93600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>90300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>94700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>94400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>92400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>88100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>90700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>94800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>95200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>90500</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA76" s="3">
         <v>13900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>41900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>66100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>91700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>112300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>114700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>3400</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F81" s="3">
         <v>3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3200</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-31500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-23200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-25500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-20500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>5500</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6671,35 +6870,38 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y83" s="3">
         <v>4500</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA83" s="3">
         <v>17800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>20900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>24100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>19900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>18100</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,50 +7357,53 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
@@ -7202,38 +7419,41 @@
       <c r="U89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y89" s="3">
         <v>18400</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-33800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>44600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-9100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7327,35 +7548,38 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-80300</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-11300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-11400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1900</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,50 +7759,53 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>26100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1200</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
@@ -7591,38 +7821,41 @@
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-156400</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-30100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>17900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>26000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>5200</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,50 +8253,53 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>125100</v>
+        <v>-16200</v>
       </c>
       <c r="E100" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-45700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>244800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>32600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
@@ -8069,80 +8315,83 @@
       <c r="U100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y100" s="3">
         <v>102400</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA100" s="3">
         <v>16000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>50700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-48900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-19800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-4200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6600</v>
+        <v>1200</v>
       </c>
       <c r="E101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1900</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
@@ -8158,80 +8407,83 @@
       <c r="U101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-      <c r="W101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y101" s="3">
         <v>11600</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>2400</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-6800</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>278500</v>
+        <v>-40600</v>
       </c>
       <c r="E102" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-85000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>260300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>24300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
@@ -8247,34 +8499,37 @@
       <c r="U102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-23900</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA102" s="3">
         <v>2000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-10700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>8500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>5100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-15000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>SOL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AF102"/>
+  <dimension ref="A5:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,410 +665,423 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>33800</v>
       </c>
       <c r="E8" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F8" s="3">
         <v>20700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>28900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>66000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>18800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>27800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>44800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>103000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>36300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>151600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>156600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>232100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>187000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>250000</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E9" s="3">
         <v>11300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>20300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>49700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>10200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>19600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>36400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>88800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>29900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>147500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>154900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>227100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>168200</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>208900</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AG9" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>12600</v>
       </c>
       <c r="E10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>16300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>14200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>5000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>18800</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>41100</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AG10" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1101,8 +1114,9 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1175,26 +1189,29 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="3">
         <v>5400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>5700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>5400</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>6300</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>7400</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AG12" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1285,67 +1302,70 @@
       <c r="AF13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5500</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1353,8 +1373,8 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1362,23 +1382,26 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC14" s="3">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="3">
         <v>4700</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>-100</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
       <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1469,8 +1492,11 @@
       <c r="AF15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1500,192 +1526,199 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-    </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>28800</v>
       </c>
       <c r="E17" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F17" s="3">
         <v>25900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>39800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>58600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>38900</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB17" s="3">
         <v>172000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>174400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>254000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>198800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>243700</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AG17" s="3">
         <v>248200</v>
       </c>
     </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>5000</v>
       </c>
       <c r="E18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5700</v>
-      </c>
-      <c r="W18" s="3">
-        <v>5900</v>
       </c>
       <c r="X18" s="3">
         <v>5900</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>8</v>
+      <c r="Y18" s="3">
+        <v>5900</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-20400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-17800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-21900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-11800</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>6300</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AG18" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1718,133 +1751,137 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-    </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>2600</v>
       </c>
       <c r="E20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1100</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>7200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-2400</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>8100</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AG20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>7100</v>
       </c>
       <c r="E21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1884,270 +1921,279 @@
       <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>9400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>5700</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>32500</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AG21" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1000</v>
       </c>
       <c r="K22" s="3">
         <v>1000</v>
       </c>
       <c r="L22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>8600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>9200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>7400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>8200</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>8500</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AG22" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>7600</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-29100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-26900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-22100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-22400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>5900</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AG23" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -2155,31 +2201,34 @@
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB24" s="3">
         <v>2400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-3600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>3400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-1900</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>400</v>
       </c>
       <c r="AF24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2270,192 +2319,201 @@
       <c r="AF25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>7700</v>
       </c>
       <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3500</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3200</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-31500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-23200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-25500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-20500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>5500</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AG26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>8300</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3200</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-31500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-23200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-25500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-20500</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>5500</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AG27" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2546,8 +2604,11 @@
       <c r="AF28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2596,17 +2657,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2614,8 +2675,8 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
@@ -2638,8 +2699,11 @@
       <c r="AF29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2730,8 +2794,11 @@
       <c r="AF30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2822,192 +2889,201 @@
       <c r="AF31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-2600</v>
       </c>
       <c r="E32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-7200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>2400</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-8100</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AG32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>8300</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3200</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-31500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-23200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-25500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-20500</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>5500</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AG33" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3098,197 +3174,206 @@
       <c r="AF34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>8300</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3200</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-31500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-23200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-25500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-20500</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>5500</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AG35" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AG38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3321,8 +3406,9 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3355,123 +3441,127 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E41" s="3">
         <v>66700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>107100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>123000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>207900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>222900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>254100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>275400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>286000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>301000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>40600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>24800</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>13400</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB41" s="3">
         <v>28600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>26600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>37300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>28800</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>23700</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AG41" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>10100</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3539,100 +3629,106 @@
       <c r="AF42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E43" s="3">
         <v>79100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>71500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>52700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>46700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>50400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>48300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>39600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>36000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>29500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>46600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>49300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>50700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>47300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>55900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>58900</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
       <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
         <v>38500</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB43" s="3">
         <v>134000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>129700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>134100</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>204000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>195900</v>
       </c>
-      <c r="AF43" s="3">
+      <c r="AG43" s="3">
         <v>199000</v>
       </c>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3687,17 +3783,17 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W44" s="3">
         <v>200</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
+      <c r="X44" s="3">
+        <v>0</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>8</v>
@@ -3705,218 +3801,227 @@
       <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB44" s="3">
         <v>92300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>153200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>144000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>185200</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>165500</v>
       </c>
-      <c r="AF44" s="3">
+      <c r="AG44" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E45" s="3">
         <v>54900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>36000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>72300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>47700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>57400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>50800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>80900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>80500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>81200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>73800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>91600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>118100</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB45" s="3">
         <v>264300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>233600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>192100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>194500</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>248100</v>
       </c>
-      <c r="AF45" s="3">
+      <c r="AG45" s="3">
         <v>232700</v>
       </c>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>229100</v>
+      </c>
+      <c r="E46" s="3">
         <v>210700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>220700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>211700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>285700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>308400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>329200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>351200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>357100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>370200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>136700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>72500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>68400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>84200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>103100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>106800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>138900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>138200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>135300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>138000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>175300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>170100</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB46" s="3">
         <v>519200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>543200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>507500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>612500</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>633100</v>
       </c>
-      <c r="AF46" s="3">
+      <c r="AG46" s="3">
         <v>652100</v>
       </c>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3">
-        <v>10000</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="3">
         <v>10000</v>
@@ -3927,8 +4032,8 @@
       <c r="H47" s="3">
         <v>10000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="I47" s="3">
+        <v>10000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -3945,8 +4050,8 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3999,100 +4104,106 @@
       <c r="AF47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>192800</v>
+      </c>
+      <c r="E48" s="3">
         <v>216500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>214800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>202700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>160600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>166300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>167100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>167300</v>
       </c>
       <c r="K48" s="3">
         <v>167300</v>
       </c>
       <c r="L48" s="3">
+        <v>167300</v>
+      </c>
+      <c r="M48" s="3">
         <v>166200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>168700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>186900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>183200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>187500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>192300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>211400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>249000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>226100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>190800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>192500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>195900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>154700</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB48" s="3">
         <v>537600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>486300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>491300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>547700</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>568100</v>
       </c>
-      <c r="AF48" s="3">
+      <c r="AG48" s="3">
         <v>603200</v>
       </c>
     </row>
-    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4126,8 +4237,8 @@
       <c r="M49" s="3">
         <v>1000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
+      <c r="N49" s="3">
+        <v>1000</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
@@ -4144,8 +4255,8 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -4159,32 +4270,35 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>8</v>
+      <c r="Y49" s="3">
+        <v>0</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB49" s="3">
         <v>32200</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>31900</v>
       </c>
       <c r="AC49" s="3">
         <v>31900</v>
       </c>
       <c r="AD49" s="3">
+        <v>31900</v>
+      </c>
+      <c r="AE49" s="3">
         <v>35500</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>35800</v>
       </c>
-      <c r="AF49" s="3">
+      <c r="AG49" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4275,8 +4389,11 @@
       <c r="AF50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4367,100 +4484,106 @@
       <c r="AF51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E52" s="3">
         <v>53500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>47200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>41800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>42900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>34200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>36400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>30400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>25300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>24600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>53400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>51700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>44900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18500</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
       <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
         <v>11000</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB52" s="3">
         <v>66000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>65000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>57800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>50800</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>51700</v>
       </c>
-      <c r="AF52" s="3">
+      <c r="AG52" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4551,100 +4674,106 @@
       <c r="AF53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>477700</v>
+      </c>
+      <c r="E54" s="3">
         <v>481700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>493900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>467200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>500300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>519900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>529300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>556000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>559200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>567100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>336900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>289100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>278000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>296900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>319900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>332700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>406300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>417700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>377700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>375400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>389600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>335700</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB54" s="3">
         <v>1154900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1126300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1088400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1246600</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1288700</v>
       </c>
-      <c r="AF54" s="3">
+      <c r="AG54" s="3">
         <v>1338900</v>
       </c>
     </row>
-    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4677,8 +4806,9 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
-    </row>
-    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4711,560 +4841,579 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
-    </row>
-    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
         <v>5900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>20400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>24600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>23700</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
       <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
         <v>25800</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB57" s="3">
         <v>203200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>221600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>223300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>281300</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>280600</v>
       </c>
-      <c r="AF57" s="3">
+      <c r="AG57" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E58" s="3">
         <v>9900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>49100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>43500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>42100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>43900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>47800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>57100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>108900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>101900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>44500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>15100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>23700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6600</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB58" s="3">
         <v>671400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>647600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>595400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>699000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>716500</v>
       </c>
-      <c r="AF58" s="3">
+      <c r="AG58" s="3">
         <v>735600</v>
       </c>
     </row>
-    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E59" s="3">
         <v>27900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>27000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>38600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>41100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>42400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>43100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>56500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>77200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>61600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>73500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>112800</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB59" s="3">
         <v>150800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>101600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>85700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>82600</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>89900</v>
       </c>
-      <c r="AF59" s="3">
+      <c r="AG59" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E60" s="3">
         <v>43700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>43300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>35100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>51100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>88300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>73200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>75900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>89400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>109400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>113500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>162800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>170900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>133700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>93300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>104700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>145200</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB60" s="3">
         <v>1025400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>970800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>904400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1062900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1087000</v>
       </c>
-      <c r="AF60" s="3">
+      <c r="AG60" s="3">
         <v>1129100</v>
       </c>
     </row>
-    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E61" s="3">
         <v>37400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>37500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>26900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>30000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>31700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>48100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>44800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>52500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>50100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>68400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>81200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>89100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>119300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>153200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>157800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>32500</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>30300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>31100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>28800</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
       <c r="AE61" s="3">
         <v>0</v>
       </c>
       <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E62" s="3">
         <v>24100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>19500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>33600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35300</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
       </c>
       <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
         <v>67500</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB62" s="3">
         <v>84400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>82600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>89000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>92000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>89500</v>
       </c>
-      <c r="AF62" s="3">
+      <c r="AG62" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5355,8 +5504,11 @@
       <c r="AF63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5447,8 +5599,11 @@
       <c r="AF64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5539,100 +5694,106 @@
       <c r="AF65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>137200</v>
+      </c>
+      <c r="E66" s="3">
         <v>146000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>146600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>128100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>110100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>120400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>125300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>133000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>137200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>153800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>197800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>185700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>184400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>206600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>225200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>238300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>313900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>329600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>287000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>280700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>294400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>245200</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB66" s="3">
         <v>1141000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1084400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1022300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1154900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1176400</v>
       </c>
-      <c r="AF66" s="3">
+      <c r="AG66" s="3">
         <v>1224200</v>
       </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5665,8 +5826,9 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
-    </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5757,8 +5919,11 @@
       <c r="AF68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5849,8 +6014,11 @@
       <c r="AF69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5941,8 +6109,11 @@
       <c r="AF70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -6033,100 +6204,106 @@
       <c r="AF71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-429200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-437600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-437400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-431600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-434600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-434400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-432700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-431100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-431800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-438800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-439600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-441500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-443700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-446700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-442300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-431400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-433800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-438900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-433500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-428400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-429900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-435500</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-524700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-493200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-470000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-444500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-424000</v>
       </c>
-      <c r="AF72" s="3">
+      <c r="AG72" s="3">
         <v>-429500</v>
       </c>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6217,8 +6394,11 @@
       <c r="AF73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6309,8 +6489,11 @@
       <c r="AF74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6401,100 +6584,106 @@
       <c r="AF75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>340500</v>
+      </c>
+      <c r="E76" s="3">
         <v>335700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>347300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>339100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>390200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>399500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>404000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>422900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>422000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>413300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>139100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>103300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>93600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>90300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>94700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>94400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>92400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>88100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>90700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>94800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>95200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>90500</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB76" s="3">
         <v>13900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>41900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>66100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>91700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>112300</v>
       </c>
-      <c r="AF76" s="3">
+      <c r="AG76" s="3">
         <v>114700</v>
       </c>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6585,197 +6774,206 @@
       <c r="AF77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
-      <c r="AF80" s="2">
+      <c r="AG80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>8300</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3200</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-31500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-23200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-25500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-20500</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>5500</v>
       </c>
-      <c r="AF81" s="3">
+      <c r="AG81" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6808,8 +7006,9 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
-    </row>
-    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6873,35 +7072,38 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z83" s="3">
         <v>4500</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB83" s="3">
         <v>17800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>20900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>24100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>19900</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>18100</v>
       </c>
-      <c r="AF83" s="3">
+      <c r="AG83" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6992,8 +7194,11 @@
       <c r="AF84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -7084,8 +7289,11 @@
       <c r="AF85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -7176,8 +7384,11 @@
       <c r="AF86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7268,8 +7479,11 @@
       <c r="AF87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7360,53 +7574,56 @@
       <c r="AF88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
@@ -7422,38 +7639,41 @@
       <c r="V89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z89" s="3">
         <v>18400</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-33800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>44600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-9100</v>
       </c>
-      <c r="AF89" s="3">
+      <c r="AG89" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7486,8 +7706,9 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
-    </row>
-    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7551,35 +7772,38 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-80300</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-11300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-11400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2600</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-1900</v>
       </c>
-      <c r="AF91" s="3">
+      <c r="AG91" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7670,8 +7894,11 @@
       <c r="AF92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7762,53 +7989,56 @@
       <c r="AF93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>26100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1200</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
@@ -7824,38 +8054,41 @@
       <c r="V94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-156400</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-30100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>17900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>26000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>5200</v>
       </c>
-      <c r="AF94" s="3">
+      <c r="AG94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7888,8 +8121,9 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
-    </row>
-    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7980,8 +8214,11 @@
       <c r="AF96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -8072,8 +8309,11 @@
       <c r="AF97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -8164,8 +8404,11 @@
       <c r="AF98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8256,53 +8499,56 @@
       <c r="AF99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-16200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-45700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-23700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>244800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>32600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
@@ -8318,83 +8564,86 @@
       <c r="V100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z100" s="3">
         <v>102400</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB100" s="3">
         <v>16000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>50700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-48900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-19800</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-4200</v>
       </c>
-      <c r="AF100" s="3">
+      <c r="AG100" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1900</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
@@ -8410,83 +8659,86 @@
       <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z101" s="3">
         <v>11600</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AA101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-5000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>2400</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-6800</v>
       </c>
-      <c r="AF101" s="3">
+      <c r="AG101" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-40600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-85000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-31500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-15000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>260300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>24300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
@@ -8502,34 +8754,37 @@
       <c r="V102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-23900</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB102" s="3">
         <v>2000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-10700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>8500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>5100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-15000</v>
       </c>
-      <c r="AF102" s="3">
+      <c r="AG102" s="3">
         <v>600</v>
       </c>
     </row>
